--- a/maestra.xlsx
+++ b/maestra.xlsx
@@ -425,7 +425,7 @@
         <v>UOM</v>
       </c>
       <c r="H1" t="str">
-        <v>URL</v>
+        <v>url</v>
       </c>
     </row>
     <row r="2">

--- a/maestra.xlsx
+++ b/maestra.xlsx
@@ -436,22 +436,22 @@
         <v>CANDY - CHOCOLATES - BÁSICO</v>
       </c>
       <c r="C2" t="str">
-        <v>628726</v>
+        <v>119808</v>
       </c>
       <c r="D2" t="str">
-        <v>761303618830</v>
+        <v>762220168837</v>
       </c>
       <c r="E2" t="str">
-        <v>TRENCITO AIR DUO</v>
+        <v>MKA OREO</v>
       </c>
       <c r="F2" t="str">
-        <v>NESTLE</v>
+        <v>MILKA</v>
       </c>
       <c r="G2" t="str">
-        <v>105GR</v>
+        <v>100GR</v>
       </c>
       <c r="H2" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/628726.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/119808.jpg_x000d_</v>
       </c>
     </row>
     <row r="3">
@@ -462,22 +462,22 @@
         <v>CANDY - CHOCOLATES - BÁSICO</v>
       </c>
       <c r="C3" t="str">
-        <v>843297</v>
+        <v>127822</v>
       </c>
       <c r="D3" t="str">
-        <v>844529000438</v>
+        <v>780221510201</v>
       </c>
       <c r="E3" t="str">
-        <v>CHOC TRENCITO MANJAR</v>
+        <v>TABLETA ROLLS CROCAN</v>
       </c>
       <c r="F3" t="str">
-        <v>NESTLE</v>
+        <v>COSTA</v>
       </c>
       <c r="G3" t="str">
-        <v>128GR</v>
+        <v>90GR</v>
       </c>
       <c r="H3" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/843297.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/127822.jpg_x000d_</v>
       </c>
     </row>
     <row r="4">
@@ -488,22 +488,22 @@
         <v>CANDY - CHOCOLATES - BÁSICO</v>
       </c>
       <c r="C4" t="str">
-        <v>655625</v>
+        <v>131182</v>
       </c>
       <c r="D4" t="str">
-        <v>789802439699</v>
+        <v>780220084040</v>
       </c>
       <c r="E4" t="str">
-        <v>FERRERO ROCHER T-12</v>
+        <v>GOLDEN NUSS 100</v>
       </c>
       <c r="F4" t="str">
-        <v>FERRERO</v>
+        <v>AMBROSOLI</v>
       </c>
       <c r="G4" t="str">
-        <v>150GR</v>
+        <v>100GR</v>
       </c>
       <c r="H4" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/655625.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/131182.jpg_x000d_</v>
       </c>
     </row>
     <row r="5">
@@ -514,22 +514,22 @@
         <v>CANDY - CHOCOLATES - BÁSICO</v>
       </c>
       <c r="C5" t="str">
-        <v>5079143</v>
+        <v>251672</v>
       </c>
       <c r="D5" t="str">
-        <v>761303443927</v>
+        <v>780223007629</v>
       </c>
       <c r="E5" t="str">
-        <v>SAHNE NUSS BITTER</v>
+        <v>SAHNE NUSS PASAS</v>
       </c>
       <c r="F5" t="str">
-        <v>SAHNE NUSS</v>
+        <v>NESTLE</v>
       </c>
       <c r="G5" t="str">
         <v>250GR</v>
       </c>
       <c r="H5" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/5079143.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/251672.jpg_x000d_</v>
       </c>
     </row>
     <row r="6">
@@ -540,22 +540,22 @@
         <v>CANDY - CHOCOLATES - BÁSICO</v>
       </c>
       <c r="C6" t="str">
-        <v>252250</v>
+        <v>251685</v>
       </c>
       <c r="D6" t="str">
-        <v>761450003578</v>
+        <v>780223007022</v>
       </c>
       <c r="E6" t="str">
-        <v>TOBLERONE LECHE</v>
+        <v>SAHNE NUSS LECHE</v>
       </c>
       <c r="F6" t="str">
-        <v>TOBLERONE</v>
+        <v>NESTLE</v>
       </c>
       <c r="G6" t="str">
-        <v>200GR</v>
+        <v>250GR</v>
       </c>
       <c r="H6" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/252250.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/251685.jpg_x000d_</v>
       </c>
     </row>
     <row r="7">
@@ -566,22 +566,22 @@
         <v>CANDY - CHOCOLATES - BÁSICO</v>
       </c>
       <c r="C7" t="str">
-        <v>691048</v>
+        <v>252250</v>
       </c>
       <c r="D7" t="str">
-        <v>400041702000</v>
+        <v>761450003578</v>
       </c>
       <c r="E7" t="str">
-        <v>RT CHOCOLATE NEGRO</v>
+        <v>TOBLERONE LECHE</v>
       </c>
       <c r="F7" t="str">
-        <v>RITTER SPORT</v>
+        <v>TOBLERONE</v>
       </c>
       <c r="G7" t="str">
-        <v>100GR</v>
+        <v>200GR</v>
       </c>
       <c r="H7" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/691048.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/252250.jpg_x000d_</v>
       </c>
     </row>
     <row r="8">
@@ -592,22 +592,22 @@
         <v>CANDY - CHOCOLATES - BÁSICO</v>
       </c>
       <c r="C8" t="str">
-        <v>5026854</v>
+        <v>264013</v>
       </c>
       <c r="D8" t="str">
-        <v>4000058012</v>
+        <v>780223007002</v>
       </c>
       <c r="E8" t="str">
-        <v>MYM MILK CHOCOLATE</v>
+        <v>CHOCOLATE TRENCITO</v>
       </c>
       <c r="F8" t="str">
-        <v>M Y M</v>
+        <v>NESTLE</v>
       </c>
       <c r="G8" t="str">
-        <v>142GR</v>
+        <v>150GR</v>
       </c>
       <c r="H8" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/5026854.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/264013.jpg_x000d_</v>
       </c>
     </row>
     <row r="9">
@@ -618,22 +618,22 @@
         <v>CANDY - CHOCOLATES - BÁSICO</v>
       </c>
       <c r="C9" t="str">
-        <v>726240</v>
+        <v>293423</v>
       </c>
       <c r="D9" t="str">
-        <v>762221095342</v>
+        <v>780221510110</v>
       </c>
       <c r="E9" t="str">
-        <v>MILKA OREO BROWNIE</v>
+        <v>COSTANUSS 250</v>
       </c>
       <c r="F9" t="str">
-        <v>MILKA</v>
+        <v>COSTA</v>
       </c>
       <c r="G9" t="str">
-        <v>100GR</v>
+        <v>250GR</v>
       </c>
       <c r="H9" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/726240.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/293423.jpg_x000d_</v>
       </c>
     </row>
     <row r="10">
@@ -644,22 +644,22 @@
         <v>CANDY - CHOCOLATES - BÁSICO</v>
       </c>
       <c r="C10" t="str">
-        <v>458513</v>
+        <v>310850</v>
       </c>
       <c r="D10" t="str">
-        <v>786100290011</v>
+        <v>780221510147</v>
       </c>
       <c r="E10" t="str">
-        <v>FERRERO ROCHER T-8</v>
+        <v>COSTANUSS S/AZUCAR</v>
       </c>
       <c r="F10" t="str">
-        <v>FERRERO</v>
+        <v>COSTA</v>
       </c>
       <c r="G10" t="str">
-        <v>100GR</v>
+        <v>110GR</v>
       </c>
       <c r="H10" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/458513.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/310850.jpg_x000d_</v>
       </c>
     </row>
     <row r="11">
@@ -670,22 +670,22 @@
         <v>CANDY - CHOCOLATES - BÁSICO</v>
       </c>
       <c r="C11" t="str">
-        <v>717244</v>
+        <v>458513</v>
       </c>
       <c r="D11" t="str">
-        <v>761040006850</v>
+        <v>786100290011</v>
       </c>
       <c r="E11" t="str">
-        <v>LINDOR CORNET MILK</v>
+        <v>FERRERO ROCHER T-8</v>
       </c>
       <c r="F11" t="str">
-        <v>LINDT</v>
+        <v>FERRERO</v>
       </c>
       <c r="G11" t="str">
-        <v>200GR</v>
+        <v>100GR</v>
       </c>
       <c r="H11" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/717244.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/458513.jpg_x000d_</v>
       </c>
     </row>
     <row r="12">
@@ -696,22 +696,22 @@
         <v>CANDY - CHOCOLATES - BÁSICO</v>
       </c>
       <c r="C12" t="str">
-        <v>131182</v>
+        <v>480510</v>
       </c>
       <c r="D12" t="str">
-        <v>780220084040</v>
+        <v>780221510148</v>
       </c>
       <c r="E12" t="str">
-        <v>GOLDEN  NUSS 100</v>
+        <v>CACAO 62 NARANJA</v>
       </c>
       <c r="F12" t="str">
-        <v>AMBROSOLI</v>
+        <v>COSTA</v>
       </c>
       <c r="G12" t="str">
-        <v>100GR</v>
+        <v>80GR</v>
       </c>
       <c r="H12" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/131182.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/480510.jpg_x000d_</v>
       </c>
     </row>
     <row r="13">
@@ -722,22 +722,22 @@
         <v>CANDY - CHOCOLATES - BÁSICO</v>
       </c>
       <c r="C13" t="str">
-        <v>5025994</v>
+        <v>487792</v>
       </c>
       <c r="D13" t="str">
-        <v>4000058029</v>
+        <v>761303472105</v>
       </c>
       <c r="E13" t="str">
-        <v>MYM PEANUT</v>
+        <v>SAHNE NUSS LECHE</v>
       </c>
       <c r="F13" t="str">
-        <v>M Y M</v>
+        <v>SAHNE NUSS</v>
       </c>
       <c r="G13" t="str">
-        <v>142GR</v>
+        <v>160GR</v>
       </c>
       <c r="H13" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/5025994.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/487792.jpg_x000d_</v>
       </c>
     </row>
     <row r="14">
@@ -748,22 +748,22 @@
         <v>CANDY - CHOCOLATES - BÁSICO</v>
       </c>
       <c r="C14" t="str">
-        <v>264013</v>
+        <v>587782</v>
       </c>
       <c r="D14" t="str">
-        <v>780223007002</v>
+        <v>762230098663</v>
       </c>
       <c r="E14" t="str">
-        <v>CHOCOLATE TRENCITO</v>
+        <v>TOBLERONE</v>
       </c>
       <c r="F14" t="str">
-        <v>NESTLE</v>
+        <v>TOBLERONE</v>
       </c>
       <c r="G14" t="str">
-        <v>150GR</v>
+        <v>360GR</v>
       </c>
       <c r="H14" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/264013.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/587782.jpg_x000d_</v>
       </c>
     </row>
     <row r="15">
@@ -774,22 +774,22 @@
         <v>CANDY - CHOCOLATES - BÁSICO</v>
       </c>
       <c r="C15" t="str">
-        <v>709286</v>
+        <v>628726</v>
       </c>
       <c r="D15" t="str">
-        <v>789802439507</v>
+        <v>761303618830</v>
       </c>
       <c r="E15" t="str">
-        <v>FERRERO CORAZON T8</v>
+        <v>TRENCITO AIR DUO</v>
       </c>
       <c r="F15" t="str">
-        <v>FERRERO</v>
+        <v>NESTLE</v>
       </c>
       <c r="G15" t="str">
-        <v>100GR</v>
+        <v>105GR</v>
       </c>
       <c r="H15" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/709286.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/628726.jpg_x000d_</v>
       </c>
     </row>
     <row r="16">
@@ -800,22 +800,22 @@
         <v>CANDY - CHOCOLATES - BÁSICO</v>
       </c>
       <c r="C16" t="str">
-        <v>5079147</v>
+        <v>655625</v>
       </c>
       <c r="D16" t="str">
-        <v>761303259666</v>
+        <v>789802439699</v>
       </c>
       <c r="E16" t="str">
-        <v>CHOC AFTER EIGHT 200</v>
+        <v>FERRERO ROCHER T-12</v>
       </c>
       <c r="F16" t="str">
-        <v>NESTLE</v>
+        <v>FERRERO</v>
       </c>
       <c r="G16" t="str">
-        <v>200GR</v>
+        <v>150GR</v>
       </c>
       <c r="H16" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/5079147.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/655625.jpg_x000d_</v>
       </c>
     </row>
     <row r="17">
@@ -826,22 +826,22 @@
         <v>CANDY - CHOCOLATES - BÁSICO</v>
       </c>
       <c r="C17" t="str">
-        <v>293423</v>
+        <v>691048</v>
       </c>
       <c r="D17" t="str">
-        <v>780221510110</v>
+        <v>400041702000</v>
       </c>
       <c r="E17" t="str">
-        <v>COSTANUSS 250</v>
+        <v>RT CHOCOLATE NEGRO</v>
       </c>
       <c r="F17" t="str">
-        <v>COSTA</v>
+        <v>RITTER SPORT</v>
       </c>
       <c r="G17" t="str">
-        <v>250GR</v>
+        <v>100GR</v>
       </c>
       <c r="H17" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/293423.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/691048.jpg_x000d_</v>
       </c>
     </row>
     <row r="18">
@@ -852,22 +852,22 @@
         <v>CANDY - CHOCOLATES - BÁSICO</v>
       </c>
       <c r="C18" t="str">
-        <v>5011231</v>
+        <v>691049</v>
       </c>
       <c r="D18" t="str">
-        <v>841017265252</v>
+        <v>400041702500</v>
       </c>
       <c r="E18" t="str">
-        <v>MILKA ALPINE</v>
+        <v>RT CHOCOLATE MAZAPAN</v>
       </c>
       <c r="F18" t="str">
-        <v>MILKA</v>
+        <v>RITTER SPORT</v>
       </c>
       <c r="G18" t="str">
-        <v>125GR</v>
+        <v>100GR</v>
       </c>
       <c r="H18" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/5011231.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/691049.jpg_x000d_</v>
       </c>
     </row>
     <row r="19">
@@ -878,22 +878,22 @@
         <v>CANDY - CHOCOLATES - BÁSICO</v>
       </c>
       <c r="C19" t="str">
-        <v>5023900</v>
+        <v>691053</v>
       </c>
       <c r="D19" t="str">
-        <v>844529088973</v>
+        <v>400041770000</v>
       </c>
       <c r="E19" t="str">
-        <v>SAHNE NUSS PK</v>
+        <v>RT LECHE AVELLANA</v>
       </c>
       <c r="F19" t="str">
-        <v>NESTLE</v>
+        <v>RITTER SPORT</v>
       </c>
       <c r="G19" t="str">
-        <v>56GR</v>
+        <v>100GR</v>
       </c>
       <c r="H19" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/5023900.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/691053.jpg_x000d_</v>
       </c>
     </row>
     <row r="20">
@@ -904,22 +904,22 @@
         <v>CANDY - CHOCOLATES - BÁSICO</v>
       </c>
       <c r="C20" t="str">
-        <v>691053</v>
+        <v>709286</v>
       </c>
       <c r="D20" t="str">
-        <v>400041770000</v>
+        <v>789802439507</v>
       </c>
       <c r="E20" t="str">
-        <v>RT LECHE AVELLANA</v>
+        <v>FERRERO CORAZON T8</v>
       </c>
       <c r="F20" t="str">
-        <v>RITTER SPORT</v>
+        <v>FERRERO</v>
       </c>
       <c r="G20" t="str">
         <v>100GR</v>
       </c>
       <c r="H20" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/691053.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/709286.jpg_x000d_</v>
       </c>
     </row>
     <row r="21">
@@ -930,22 +930,22 @@
         <v>CANDY - CHOCOLATES - BÁSICO</v>
       </c>
       <c r="C21" t="str">
-        <v>127822</v>
+        <v>717244</v>
       </c>
       <c r="D21" t="str">
-        <v>780221510201</v>
+        <v>761040006850</v>
       </c>
       <c r="E21" t="str">
-        <v>TABLETA ROLLS CROCAN</v>
+        <v>LINDOR CORNET MILK</v>
       </c>
       <c r="F21" t="str">
-        <v>COSTA</v>
+        <v>LINDT</v>
       </c>
       <c r="G21" t="str">
-        <v>90GR</v>
+        <v>200GR</v>
       </c>
       <c r="H21" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/127822.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/717244.jpg_x000d_</v>
       </c>
     </row>
     <row r="22">
@@ -956,22 +956,22 @@
         <v>CANDY - CHOCOLATES - BÁSICO</v>
       </c>
       <c r="C22" t="str">
-        <v>310850</v>
+        <v>726240</v>
       </c>
       <c r="D22" t="str">
-        <v>780221510147</v>
+        <v>762221095342</v>
       </c>
       <c r="E22" t="str">
-        <v>COSTANUSS S/AZUCAR</v>
+        <v>MILKA OREO BROWNIE</v>
       </c>
       <c r="F22" t="str">
-        <v>COSTA</v>
+        <v>MILKA</v>
       </c>
       <c r="G22" t="str">
-        <v>110GR</v>
+        <v>100GR</v>
       </c>
       <c r="H22" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/310850.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/726240.jpg_x000d_</v>
       </c>
     </row>
     <row r="23">
@@ -982,22 +982,22 @@
         <v>CANDY - CHOCOLATES - BÁSICO</v>
       </c>
       <c r="C23" t="str">
-        <v>843296</v>
+        <v>832457</v>
       </c>
       <c r="D23" t="str">
-        <v>844529015639</v>
+        <v>789802439786</v>
       </c>
       <c r="E23" t="str">
-        <v>CHOC TRENCITO TRITON</v>
+        <v>FERRERO ROCHER T4</v>
       </c>
       <c r="F23" t="str">
-        <v>NESTLE</v>
+        <v>FERRERO</v>
       </c>
       <c r="G23" t="str">
-        <v>125GR</v>
+        <v>50GR</v>
       </c>
       <c r="H23" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/843296.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/832457.jpg_x000d_</v>
       </c>
     </row>
     <row r="24">
@@ -1008,22 +1008,22 @@
         <v>CANDY - CHOCOLATES - BÁSICO</v>
       </c>
       <c r="C24" t="str">
-        <v>251685</v>
+        <v>843296</v>
       </c>
       <c r="D24" t="str">
-        <v>780223007022</v>
+        <v>844529015639</v>
       </c>
       <c r="E24" t="str">
-        <v>SAHNE NUSS LECHE</v>
+        <v>CHOC TRENCITO TRITON</v>
       </c>
       <c r="F24" t="str">
         <v>NESTLE</v>
       </c>
       <c r="G24" t="str">
-        <v>250GR</v>
+        <v>125GR</v>
       </c>
       <c r="H24" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/251685.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/843296.jpg_x000d_</v>
       </c>
     </row>
     <row r="25">
@@ -1034,22 +1034,22 @@
         <v>CANDY - CHOCOLATES - BÁSICO</v>
       </c>
       <c r="C25" t="str">
-        <v>587782</v>
+        <v>843297</v>
       </c>
       <c r="D25" t="str">
-        <v>762230098663</v>
+        <v>844529000438</v>
       </c>
       <c r="E25" t="str">
-        <v>TOBLERONE</v>
+        <v>CHOC TRENCITO MANJAR</v>
       </c>
       <c r="F25" t="str">
-        <v>TOBLERONE</v>
+        <v>NESTLE</v>
       </c>
       <c r="G25" t="str">
-        <v>360GR</v>
+        <v>128GR</v>
       </c>
       <c r="H25" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/587782.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/843297.jpg_x000d_</v>
       </c>
     </row>
     <row r="26">
@@ -1060,22 +1060,22 @@
         <v>CANDY - CHOCOLATES - BÁSICO</v>
       </c>
       <c r="C26" t="str">
-        <v>480510</v>
+        <v>5011231</v>
       </c>
       <c r="D26" t="str">
-        <v>780221510148</v>
+        <v>841017265252</v>
       </c>
       <c r="E26" t="str">
-        <v>CACAO 62 NARANJA</v>
+        <v>MILKA ALPINE</v>
       </c>
       <c r="F26" t="str">
-        <v>COSTA</v>
+        <v>MILKA</v>
       </c>
       <c r="G26" t="str">
-        <v>80GR</v>
+        <v>125GR</v>
       </c>
       <c r="H26" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/480510.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/5011231.jpg_x000d_</v>
       </c>
     </row>
     <row r="27">
@@ -1086,22 +1086,22 @@
         <v>CANDY - CHOCOLATES - BÁSICO</v>
       </c>
       <c r="C27" t="str">
-        <v>251672</v>
+        <v>5023900</v>
       </c>
       <c r="D27" t="str">
-        <v>780223007629</v>
+        <v>844529088973</v>
       </c>
       <c r="E27" t="str">
-        <v>SAHNE NUSS PASAS</v>
+        <v>SAHNE NUSS PK</v>
       </c>
       <c r="F27" t="str">
         <v>NESTLE</v>
       </c>
       <c r="G27" t="str">
-        <v>250GR</v>
+        <v>56GR</v>
       </c>
       <c r="H27" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/251672.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/5023900.jpg_x000d_</v>
       </c>
     </row>
     <row r="28">
@@ -1112,22 +1112,22 @@
         <v>CANDY - CHOCOLATES - BÁSICO</v>
       </c>
       <c r="C28" t="str">
-        <v>691049</v>
+        <v>5025994</v>
       </c>
       <c r="D28" t="str">
-        <v>400041702500</v>
+        <v>4000058029</v>
       </c>
       <c r="E28" t="str">
-        <v>RT CHOCOLATE MAZAPAN</v>
+        <v>MYM PEANUT</v>
       </c>
       <c r="F28" t="str">
-        <v>RITTER SPORT</v>
+        <v>M Y M</v>
       </c>
       <c r="G28" t="str">
-        <v>100GR</v>
+        <v>142GR</v>
       </c>
       <c r="H28" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/691049.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/5025994.jpg_x000d_</v>
       </c>
     </row>
     <row r="29">
@@ -1138,22 +1138,22 @@
         <v>CANDY - CHOCOLATES - BÁSICO</v>
       </c>
       <c r="C29" t="str">
-        <v>487792</v>
+        <v>5026854</v>
       </c>
       <c r="D29" t="str">
-        <v>761303472105</v>
+        <v>4000058012</v>
       </c>
       <c r="E29" t="str">
-        <v>SAHNE NUSS LECHE</v>
+        <v>MYM MILK CHOCOLATE</v>
       </c>
       <c r="F29" t="str">
-        <v>SAHNE NUSS</v>
+        <v>M Y M</v>
       </c>
       <c r="G29" t="str">
-        <v>160GR</v>
+        <v>142GR</v>
       </c>
       <c r="H29" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/487792.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/5026854.jpg_x000d_</v>
       </c>
     </row>
     <row r="30">
@@ -1164,22 +1164,22 @@
         <v>CANDY - CHOCOLATES - BÁSICO</v>
       </c>
       <c r="C30" t="str">
-        <v>832457</v>
+        <v>5079143</v>
       </c>
       <c r="D30" t="str">
-        <v>789802439786</v>
+        <v>761303443927</v>
       </c>
       <c r="E30" t="str">
-        <v>FERRERO ROCHER T4</v>
+        <v>SAHNE NUSS BITTER</v>
       </c>
       <c r="F30" t="str">
-        <v>FERRERO</v>
+        <v>SAHNE NUSS</v>
       </c>
       <c r="G30" t="str">
-        <v>50GR</v>
+        <v>250GR</v>
       </c>
       <c r="H30" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/832457.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/5079143.jpg_x000d_</v>
       </c>
     </row>
     <row r="31">
@@ -1190,22 +1190,22 @@
         <v>CANDY - CHOCOLATES - BÁSICO</v>
       </c>
       <c r="C31" t="str">
-        <v>119808</v>
+        <v>5079147</v>
       </c>
       <c r="D31" t="str">
-        <v>762220168837</v>
+        <v>761303259666</v>
       </c>
       <c r="E31" t="str">
-        <v>MKA OREO</v>
+        <v>CHOC AFTER EIGHT 200</v>
       </c>
       <c r="F31" t="str">
-        <v>MILKA</v>
+        <v>NESTLE</v>
       </c>
       <c r="G31" t="str">
-        <v>100GR</v>
+        <v>200GR</v>
       </c>
       <c r="H31" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/119808.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/5079147.jpg_x000d_</v>
       </c>
     </row>
     <row r="32">
@@ -1213,25 +1213,25 @@
         <v>2</v>
       </c>
       <c r="B32" t="str">
-        <v>HILO DENTAL</v>
+        <v>ACEITE CALIENTE</v>
       </c>
       <c r="C32" t="str">
-        <v>5079154</v>
+        <v>700827</v>
       </c>
       <c r="D32" t="str">
-        <v>750633939450</v>
+        <v>750043515100</v>
       </c>
       <c r="E32" t="str">
-        <v>H DENTAL OB X2 25M</v>
+        <v>OLEO REFRESH 95ML</v>
       </c>
       <c r="F32" t="str">
-        <v>ORAL B</v>
+        <v>PANTENE</v>
       </c>
       <c r="G32" t="str">
-        <v>1UN</v>
+        <v>95ML</v>
       </c>
       <c r="H32" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/5079154.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/700827.jpg_x000d_</v>
       </c>
     </row>
     <row r="33">
@@ -1257,7 +1257,7 @@
         <v>95ML</v>
       </c>
       <c r="H33" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/5027872.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/5027872.jpg_x000d_</v>
       </c>
     </row>
     <row r="34">
@@ -1265,25 +1265,25 @@
         <v>2</v>
       </c>
       <c r="B34" t="str">
-        <v>ANTISEPTICO</v>
+        <v>ACONDICIONADOR BELLEZA</v>
       </c>
       <c r="C34" t="str">
-        <v>803257</v>
+        <v>5059468</v>
       </c>
       <c r="D34" t="str">
-        <v>770203543244</v>
+        <v>750955292856</v>
       </c>
       <c r="E34" t="str">
-        <v>ENJUAGE C.SARRO</v>
+        <v>ELV ACIDIFIER 200ML</v>
       </c>
       <c r="F34" t="str">
-        <v>LISTERINE</v>
+        <v>ELVIVE</v>
       </c>
       <c r="G34" t="str">
-        <v>500ML</v>
+        <v>200ML</v>
       </c>
       <c r="H34" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/803257.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/5059468.jpg_x000d_</v>
       </c>
     </row>
     <row r="35">
@@ -1291,25 +1291,25 @@
         <v>2</v>
       </c>
       <c r="B35" t="str">
-        <v>ACEITE CALIENTE</v>
+        <v>ADULTO</v>
       </c>
       <c r="C35" t="str">
-        <v>700827</v>
+        <v>563655</v>
       </c>
       <c r="D35" t="str">
-        <v>750043515100</v>
+        <v>750100110028</v>
       </c>
       <c r="E35" t="str">
-        <v>OLEO REFRESH 95ML</v>
+        <v>CEP PROSLD 7 BENEF</v>
       </c>
       <c r="F35" t="str">
-        <v>PANTENE</v>
+        <v>ORAL B</v>
       </c>
       <c r="G35" t="str">
-        <v>95ML</v>
+        <v>2UN</v>
       </c>
       <c r="H35" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/700827.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/563655.jpg_x000d_</v>
       </c>
     </row>
     <row r="36">
@@ -1317,25 +1317,25 @@
         <v>2</v>
       </c>
       <c r="B36" t="str">
-        <v>ACONDICIONADOR BELLEZA</v>
+        <v>ADULTO</v>
       </c>
       <c r="C36" t="str">
-        <v>5059468</v>
+        <v>764305</v>
       </c>
       <c r="D36" t="str">
-        <v>750955292856</v>
+        <v>421020133471</v>
       </c>
       <c r="E36" t="str">
-        <v>ELV ACIDIFIER 200ML</v>
+        <v>CEP ELECTRI PRINCESS</v>
       </c>
       <c r="F36" t="str">
-        <v>ELVIVE</v>
+        <v>ORAL B</v>
       </c>
       <c r="G36" t="str">
-        <v>200ML</v>
+        <v>1UN</v>
       </c>
       <c r="H36" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/5059468.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/764305.jpg_x000d_</v>
       </c>
     </row>
     <row r="37">
@@ -1361,7 +1361,7 @@
         <v>1UN</v>
       </c>
       <c r="H37" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/764306.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/764306.jpg_x000d_</v>
       </c>
     </row>
     <row r="38">
@@ -1387,7 +1387,7 @@
         <v>1UN</v>
       </c>
       <c r="H38" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/777238.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/777238.jpg_x000d_</v>
       </c>
     </row>
     <row r="39">
@@ -1395,25 +1395,25 @@
         <v>2</v>
       </c>
       <c r="B39" t="str">
-        <v>ADULTO</v>
+        <v>ANTISEPTICO</v>
       </c>
       <c r="C39" t="str">
-        <v>764305</v>
+        <v>803257</v>
       </c>
       <c r="D39" t="str">
-        <v>421020133471</v>
+        <v>770203543244</v>
       </c>
       <c r="E39" t="str">
-        <v>CEP ELECTRI PRINCESS</v>
+        <v>ENJUAGE C.SARRO</v>
       </c>
       <c r="F39" t="str">
-        <v>ORAL B</v>
+        <v>LISTERINE</v>
       </c>
       <c r="G39" t="str">
-        <v>1UN</v>
+        <v>500ML</v>
       </c>
       <c r="H39" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/764305.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/803257.jpg_x000d_</v>
       </c>
     </row>
     <row r="40">
@@ -1421,25 +1421,25 @@
         <v>2</v>
       </c>
       <c r="B40" t="str">
-        <v>ADULTO</v>
+        <v>DESECHABLES HOMBRE</v>
       </c>
       <c r="C40" t="str">
-        <v>563655</v>
+        <v>685305</v>
       </c>
       <c r="D40" t="str">
-        <v>750100110028</v>
+        <v>750633939084</v>
       </c>
       <c r="E40" t="str">
-        <v>CEP PROSLD 7 BENEF</v>
+        <v>PRESTOBARBA 3X8</v>
       </c>
       <c r="F40" t="str">
-        <v>ORAL B</v>
+        <v>GILLETTE</v>
       </c>
       <c r="G40" t="str">
-        <v>2UN</v>
+        <v>8UN</v>
       </c>
       <c r="H40" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/563655.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/685305.jpg_x000d_</v>
       </c>
     </row>
     <row r="41">
@@ -1450,22 +1450,22 @@
         <v>DESECHABLES HOMBRE</v>
       </c>
       <c r="C41" t="str">
-        <v>5079157</v>
+        <v>784753</v>
       </c>
       <c r="D41" t="str">
-        <v>750633938950</v>
+        <v>65024005014</v>
       </c>
       <c r="E41" t="str">
-        <v>PRESTOBARBA UGX10</v>
+        <v>MAQ AFEITAR 500 2UP</v>
       </c>
       <c r="F41" t="str">
-        <v>GILLETTE</v>
+        <v>GROOMEN</v>
       </c>
       <c r="G41" t="str">
-        <v>10UN</v>
+        <v>2UN</v>
       </c>
       <c r="H41" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/5079157.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/784753.jpg_x000d_</v>
       </c>
     </row>
     <row r="42">
@@ -1476,22 +1476,22 @@
         <v>DESECHABLES HOMBRE</v>
       </c>
       <c r="C42" t="str">
-        <v>685305</v>
+        <v>5079157</v>
       </c>
       <c r="D42" t="str">
-        <v>750633939084</v>
+        <v>750633938950</v>
       </c>
       <c r="E42" t="str">
-        <v>PRESTOBARBA 3X8</v>
+        <v>PRESTOBARBA UGX10</v>
       </c>
       <c r="F42" t="str">
         <v>GILLETTE</v>
       </c>
       <c r="G42" t="str">
-        <v>8UN</v>
+        <v>10UN</v>
       </c>
       <c r="H42" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/685305.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/5079157.jpg_x000d_</v>
       </c>
     </row>
     <row r="43">
@@ -1499,25 +1499,25 @@
         <v>2</v>
       </c>
       <c r="B43" t="str">
-        <v>DESECHABLES HOMBRE</v>
+        <v>HILO DENTAL</v>
       </c>
       <c r="C43" t="str">
-        <v>784753</v>
+        <v>5079154</v>
       </c>
       <c r="D43" t="str">
-        <v>65024005014</v>
+        <v>750633939450</v>
       </c>
       <c r="E43" t="str">
-        <v>MAQ AFEITAR 500 2UP</v>
+        <v>H DENTAL OB X2 25M</v>
       </c>
       <c r="F43" t="str">
-        <v>GROOMEN</v>
+        <v>ORAL B</v>
       </c>
       <c r="G43" t="str">
-        <v>2UN</v>
+        <v>1UN</v>
       </c>
       <c r="H43" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/784753.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/5079154.jpg_x000d_</v>
       </c>
     </row>
     <row r="44">
@@ -1528,22 +1528,22 @@
         <v>HOMBRE</v>
       </c>
       <c r="C44" t="str">
-        <v>253024</v>
+        <v>250714</v>
       </c>
       <c r="D44" t="str">
-        <v>750955000000</v>
+        <v>7940005291</v>
       </c>
       <c r="E44" t="str">
-        <v>DEO GEL EXTREME</v>
+        <v>DEO CLINICAL SOFT</v>
       </c>
       <c r="F44" t="str">
-        <v>SPEED STICK</v>
+        <v>REXONA</v>
       </c>
       <c r="G44" t="str">
-        <v>85GR</v>
+        <v>48GR</v>
       </c>
       <c r="H44" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/253024.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/250714.jpg_x000d_</v>
       </c>
     </row>
     <row r="45">
@@ -1554,22 +1554,22 @@
         <v>HOMBRE</v>
       </c>
       <c r="C45" t="str">
-        <v>5073360</v>
+        <v>253024</v>
       </c>
       <c r="D45" t="str">
-        <v>400580034498</v>
+        <v>750954604532</v>
       </c>
       <c r="E45" t="str">
-        <v>DEO SPRAY ANTITRANS</v>
+        <v>DEO GEL EXTREME</v>
       </c>
       <c r="F45" t="str">
-        <v>HIDROFUGAL</v>
+        <v>SPEED STICK</v>
       </c>
       <c r="G45" t="str">
-        <v>150ML</v>
+        <v>85GR</v>
       </c>
       <c r="H45" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/5073360.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/253024.jpg_x000d_</v>
       </c>
     </row>
     <row r="46">
@@ -1580,22 +1580,22 @@
         <v>HOMBRE</v>
       </c>
       <c r="C46" t="str">
-        <v>250714</v>
+        <v>5073360</v>
       </c>
       <c r="D46" t="str">
-        <v>7940005291</v>
+        <v>400580034498</v>
       </c>
       <c r="E46" t="str">
-        <v>DEO CLINICAL SOFT</v>
+        <v>DEO SPRAY ANTITRANS</v>
       </c>
       <c r="F46" t="str">
-        <v>REXONA</v>
+        <v>HIDROFUGAL</v>
       </c>
       <c r="G46" t="str">
-        <v>48GR</v>
+        <v>150ML</v>
       </c>
       <c r="H46" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/250714.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/5073360.jpg_x000d_</v>
       </c>
     </row>
     <row r="47">
@@ -1621,7 +1621,7 @@
         <v>1UN</v>
       </c>
       <c r="H47" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/5079162.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/5079162.jpg_x000d_</v>
       </c>
     </row>
     <row r="48">
@@ -1632,22 +1632,22 @@
         <v>MUJER</v>
       </c>
       <c r="C48" t="str">
-        <v>5079159</v>
+        <v>102593</v>
       </c>
       <c r="D48" t="str">
-        <v>780500031308</v>
+        <v>780500032298</v>
       </c>
       <c r="E48" t="str">
-        <v>REXONA WOM CLINIC 2X</v>
+        <v>PACK2 DEO BARRA POWD</v>
       </c>
       <c r="F48" t="str">
         <v>REXONA</v>
       </c>
       <c r="G48" t="str">
-        <v>96GR</v>
+        <v>100GR</v>
       </c>
       <c r="H48" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/5079159.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/102593.jpg_x000d_</v>
       </c>
     </row>
     <row r="49">
@@ -1658,22 +1658,22 @@
         <v>MUJER</v>
       </c>
       <c r="C49" t="str">
-        <v>264436</v>
+        <v>250511</v>
       </c>
       <c r="D49" t="str">
-        <v>750103590892</v>
+        <v>7940005292</v>
       </c>
       <c r="E49" t="str">
-        <v>DEO BARRA INV FLORAL</v>
+        <v>DEO CLINICAL WOMEN</v>
       </c>
       <c r="F49" t="str">
-        <v>LADY SPEED STICK</v>
+        <v>REXONA</v>
       </c>
       <c r="G49" t="str">
-        <v>45GR</v>
+        <v>48GR</v>
       </c>
       <c r="H49" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/264436.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/250511.jpg_x000d_</v>
       </c>
     </row>
     <row r="50">
@@ -1684,22 +1684,22 @@
         <v>MUJER</v>
       </c>
       <c r="C50" t="str">
-        <v>5079153</v>
+        <v>264436</v>
       </c>
       <c r="D50" t="str">
-        <v>400580034496</v>
+        <v>750103590892</v>
       </c>
       <c r="E50" t="str">
-        <v>ROLL-ON ANTITRANSP</v>
+        <v>DEO BARRA INV FLORAL</v>
       </c>
       <c r="F50" t="str">
-        <v>HIDROFUGAL</v>
+        <v>LADY SPEED STICK</v>
       </c>
       <c r="G50" t="str">
-        <v>50ML</v>
+        <v>45GR</v>
       </c>
       <c r="H50" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/5079153.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/264436.jpg_x000d_</v>
       </c>
     </row>
     <row r="51">
@@ -1710,22 +1710,22 @@
         <v>MUJER</v>
       </c>
       <c r="C51" t="str">
-        <v>483825</v>
+        <v>264511</v>
       </c>
       <c r="D51" t="str">
-        <v>7940030116</v>
+        <v>780500078402</v>
       </c>
       <c r="E51" t="str">
-        <v>DEO CLINICAL SOLID E</v>
+        <v>DEO.BARRA.AP.POWDER</v>
       </c>
       <c r="F51" t="str">
         <v>REXONA</v>
       </c>
       <c r="G51" t="str">
-        <v>48GR</v>
+        <v>50GR</v>
       </c>
       <c r="H51" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/483825.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/264511.jpg_x000d_</v>
       </c>
     </row>
     <row r="52">
@@ -1751,7 +1751,7 @@
         <v>65GR</v>
       </c>
       <c r="H52" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/264530.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/264530.jpg_x000d_</v>
       </c>
     </row>
     <row r="53">
@@ -1762,22 +1762,22 @@
         <v>MUJER</v>
       </c>
       <c r="C53" t="str">
-        <v>5081145</v>
+        <v>483825</v>
       </c>
       <c r="D53" t="str">
-        <v>400580034497</v>
+        <v>7940030116</v>
       </c>
       <c r="E53" t="str">
-        <v>HF STK CLAS 50ML</v>
+        <v>DEO CLINICAL SOLID E</v>
       </c>
       <c r="F53" t="str">
-        <v>HIDROFUGAL</v>
+        <v>REXONA</v>
       </c>
       <c r="G53" t="str">
-        <v>50ML</v>
+        <v>48GR</v>
       </c>
       <c r="H53" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/5081145.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/483825.jpg_x000d_</v>
       </c>
     </row>
     <row r="54">
@@ -1788,22 +1788,22 @@
         <v>MUJER</v>
       </c>
       <c r="C54" t="str">
-        <v>250511</v>
+        <v>5060866</v>
       </c>
       <c r="D54" t="str">
-        <v>7940005292</v>
+        <v>7506283</v>
       </c>
       <c r="E54" t="str">
-        <v>DEO CLINICAL WOMEN</v>
+        <v>DEO BARRA ORIGINAL</v>
       </c>
       <c r="F54" t="str">
-        <v>REXONA</v>
+        <v>DOVE</v>
       </c>
       <c r="G54" t="str">
-        <v>48GR</v>
+        <v>45GR</v>
       </c>
       <c r="H54" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/250511.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/5060866.jpg_x000d_</v>
       </c>
     </row>
     <row r="55">
@@ -1814,22 +1814,22 @@
         <v>MUJER</v>
       </c>
       <c r="C55" t="str">
-        <v>264511</v>
+        <v>5079153</v>
       </c>
       <c r="D55" t="str">
-        <v>780500078402</v>
+        <v>400580034496</v>
       </c>
       <c r="E55" t="str">
-        <v>DEO.BARRA.AP.POWDER</v>
+        <v>ROLL-ON ANTITRANSP</v>
       </c>
       <c r="F55" t="str">
-        <v>REXONA</v>
+        <v>HIDROFUGAL</v>
       </c>
       <c r="G55" t="str">
-        <v>50GR</v>
+        <v>50ML</v>
       </c>
       <c r="H55" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/264511.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/5079153.jpg_x000d_</v>
       </c>
     </row>
     <row r="56">
@@ -1840,22 +1840,22 @@
         <v>MUJER</v>
       </c>
       <c r="C56" t="str">
-        <v>5060866</v>
+        <v>5079159</v>
       </c>
       <c r="D56" t="str">
-        <v>7506283</v>
+        <v>780500031308</v>
       </c>
       <c r="E56" t="str">
-        <v>DEO BARRA ORIGINAL</v>
+        <v>REXONA WOM CLINIC 2X</v>
       </c>
       <c r="F56" t="str">
-        <v>DOVE</v>
+        <v>REXONA</v>
       </c>
       <c r="G56" t="str">
-        <v>45GR</v>
+        <v>96GR</v>
       </c>
       <c r="H56" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/5060866.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/5079159.jpg_x000d_</v>
       </c>
     </row>
     <row r="57">
@@ -1866,22 +1866,22 @@
         <v>MUJER</v>
       </c>
       <c r="C57" t="str">
-        <v>102593</v>
+        <v>5081145</v>
       </c>
       <c r="D57" t="str">
-        <v>780500032298</v>
+        <v>400580034497</v>
       </c>
       <c r="E57" t="str">
-        <v>PACK2 DEO BARRA POWD</v>
+        <v>HF STK CLAS 50ML</v>
       </c>
       <c r="F57" t="str">
-        <v>REXONA</v>
+        <v>HIDROFUGAL</v>
       </c>
       <c r="G57" t="str">
-        <v>100GR</v>
+        <v>50ML</v>
       </c>
       <c r="H57" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/102593.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/5081145.jpg_x000d_</v>
       </c>
     </row>
     <row r="58">
@@ -1892,22 +1892,22 @@
         <v>MUJER</v>
       </c>
       <c r="C58" t="str">
-        <v>5081144</v>
+        <v>5097004</v>
       </c>
       <c r="D58" t="str">
-        <v>400600007961</v>
+        <v>400600012776</v>
       </c>
       <c r="E58" t="str">
-        <v>HF CLAS PMP-SPY 75ML</v>
+        <v>DEO CLASSIC SPRAY MU</v>
       </c>
       <c r="F58" t="str">
-        <v>HIDROFUGAL</v>
+        <v>NIVEA DEO</v>
       </c>
       <c r="G58" t="str">
         <v>75ML</v>
       </c>
       <c r="H58" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/5081144.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/5097004.jpg_x000d_</v>
       </c>
     </row>
     <row r="59">
@@ -1918,22 +1918,22 @@
         <v>NO DESECHABLES HOMBRE</v>
       </c>
       <c r="C59" t="str">
-        <v>5065459</v>
+        <v>251475</v>
       </c>
       <c r="D59" t="str">
-        <v>750633932315</v>
+        <v>770201803789</v>
       </c>
       <c r="E59" t="str">
-        <v>REPUES MACH3 SENS X6</v>
+        <v>REP MACH3 SENSIT X4</v>
       </c>
       <c r="F59" t="str">
         <v>GILLETTE</v>
       </c>
       <c r="G59" t="str">
-        <v>6UN</v>
+        <v>4UN</v>
       </c>
       <c r="H59" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/5065459.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/251475.jpg_x000d_</v>
       </c>
     </row>
     <row r="60">
@@ -1944,13 +1944,13 @@
         <v>NO DESECHABLES HOMBRE</v>
       </c>
       <c r="C60" t="str">
-        <v>251475</v>
+        <v>422236</v>
       </c>
       <c r="D60" t="str">
-        <v>770201803789</v>
+        <v>4740017966</v>
       </c>
       <c r="E60" t="str">
-        <v>REP MACH3 SENSIT X4</v>
+        <v>REPUESTO MACH3 X4</v>
       </c>
       <c r="F60" t="str">
         <v>GILLETTE</v>
@@ -1959,7 +1959,7 @@
         <v>4UN</v>
       </c>
       <c r="H60" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/251475.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/422236.jpg_x000d_</v>
       </c>
     </row>
     <row r="61">
@@ -1970,13 +1970,13 @@
         <v>NO DESECHABLES HOMBRE</v>
       </c>
       <c r="C61" t="str">
-        <v>422236</v>
+        <v>660762</v>
       </c>
       <c r="D61" t="str">
-        <v>4740017966</v>
+        <v>750043513199</v>
       </c>
       <c r="E61" t="str">
-        <v>REPUESTO MACH3 X4</v>
+        <v>REP GILL FUSION X4</v>
       </c>
       <c r="F61" t="str">
         <v>GILLETTE</v>
@@ -1985,7 +1985,7 @@
         <v>4UN</v>
       </c>
       <c r="H61" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/422236.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/660762.jpg_x000d_</v>
       </c>
     </row>
     <row r="62">
@@ -1996,22 +1996,22 @@
         <v>NO DESECHABLES HOMBRE</v>
       </c>
       <c r="C62" t="str">
-        <v>5065458</v>
+        <v>5021152</v>
       </c>
       <c r="D62" t="str">
-        <v>750633932318</v>
+        <v>750043521932</v>
       </c>
       <c r="E62" t="str">
-        <v>REPUES MACH3 REG X6</v>
+        <v>REP M3 CARBONO 4CT</v>
       </c>
       <c r="F62" t="str">
         <v>GILLETTE</v>
       </c>
       <c r="G62" t="str">
-        <v>6UN</v>
+        <v>1UN</v>
       </c>
       <c r="H62" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/5065458.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/5021152.jpg_x000d_</v>
       </c>
     </row>
     <row r="63">
@@ -2022,22 +2022,22 @@
         <v>NO DESECHABLES HOMBRE</v>
       </c>
       <c r="C63" t="str">
-        <v>660762</v>
+        <v>5065458</v>
       </c>
       <c r="D63" t="str">
-        <v>750043513199</v>
+        <v>750633932318</v>
       </c>
       <c r="E63" t="str">
-        <v>REP GILL FUSION X4</v>
+        <v>REPUES MACH3 REG X6</v>
       </c>
       <c r="F63" t="str">
         <v>GILLETTE</v>
       </c>
       <c r="G63" t="str">
-        <v>4UN</v>
+        <v>6UN</v>
       </c>
       <c r="H63" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/660762.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/5065458.jpg_x000d_</v>
       </c>
     </row>
     <row r="64">
@@ -2048,22 +2048,22 @@
         <v>NO DESECHABLES HOMBRE</v>
       </c>
       <c r="C64" t="str">
-        <v>5021152</v>
+        <v>5065459</v>
       </c>
       <c r="D64" t="str">
-        <v>750043521932</v>
+        <v>750633932315</v>
       </c>
       <c r="E64" t="str">
-        <v>REP M3 CARBONO 4CT</v>
+        <v>REPUES MACH3 SENS X6</v>
       </c>
       <c r="F64" t="str">
         <v>GILLETTE</v>
       </c>
       <c r="G64" t="str">
-        <v>1UN</v>
+        <v>6UN</v>
       </c>
       <c r="H64" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/5021152.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/5065459.jpg_x000d_</v>
       </c>
     </row>
     <row r="65">
@@ -2089,7 +2089,7 @@
         <v>75GR</v>
       </c>
       <c r="H65" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/112917.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/112917.jpg_x000d_</v>
       </c>
     </row>
     <row r="66">
@@ -2100,22 +2100,22 @@
         <v>PASTA ADULTO</v>
       </c>
       <c r="C66" t="str">
-        <v>5079158</v>
+        <v>633825</v>
       </c>
       <c r="D66" t="str">
-        <v>750106506458</v>
+        <v>750954605387</v>
       </c>
       <c r="E66" t="str">
-        <v>PASTA SENS BLAN</v>
+        <v>COLGATE LUMIN 125G</v>
       </c>
       <c r="F66" t="str">
-        <v>SENSODYNE</v>
+        <v>COLGATE</v>
       </c>
       <c r="G66" t="str">
-        <v>100GR</v>
+        <v>1UN</v>
       </c>
       <c r="H66" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/5079158.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/633825.jpg_x000d_</v>
       </c>
     </row>
     <row r="67">
@@ -2126,22 +2126,22 @@
         <v>PASTA ADULTO</v>
       </c>
       <c r="C67" t="str">
-        <v>633825</v>
+        <v>5079158</v>
       </c>
       <c r="D67" t="str">
-        <v>750954605387</v>
+        <v>750106506458</v>
       </c>
       <c r="E67" t="str">
-        <v>COLGATE LUMIN 125G</v>
+        <v>PASTA SENS BLAN</v>
       </c>
       <c r="F67" t="str">
-        <v>COLGATE</v>
+        <v>SENSODYNE</v>
       </c>
       <c r="G67" t="str">
-        <v>1UN</v>
+        <v>100GR</v>
       </c>
       <c r="H67" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/633825.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/5079158.jpg_x000d_</v>
       </c>
     </row>
     <row r="68">
@@ -2152,22 +2152,22 @@
         <v>SENSIBLE</v>
       </c>
       <c r="C68" t="str">
-        <v>5079155</v>
+        <v>256722</v>
       </c>
       <c r="D68" t="str">
-        <v>779464017013</v>
+        <v>789602000000</v>
       </c>
       <c r="E68" t="str">
-        <v>SDY REP - PROT 100</v>
+        <v>PASTA.DENTAL EXTRA W</v>
       </c>
       <c r="F68" t="str">
         <v>SENSODYNE</v>
       </c>
       <c r="G68" t="str">
-        <v>100GR</v>
+        <v>90GR</v>
       </c>
       <c r="H68" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/5079155.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/256722.jpg_x000d_</v>
       </c>
     </row>
     <row r="69">
@@ -2178,22 +2178,22 @@
         <v>SENSIBLE</v>
       </c>
       <c r="C69" t="str">
-        <v>256722</v>
+        <v>5079155</v>
       </c>
       <c r="D69" t="str">
-        <v>789601552004</v>
+        <v>779464017013</v>
       </c>
       <c r="E69" t="str">
-        <v>PASTA.DENTAL EXTRA W</v>
+        <v>SDY REP - PROT 100</v>
       </c>
       <c r="F69" t="str">
         <v>SENSODYNE</v>
       </c>
       <c r="G69" t="str">
-        <v>90GR</v>
+        <v>100GR</v>
       </c>
       <c r="H69" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/256722.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/5079155.jpg_x000d_</v>
       </c>
     </row>
     <row r="70">
@@ -2219,7 +2219,7 @@
         <v>100GR</v>
       </c>
       <c r="H70" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/5079161.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/5079161.jpg_x000d_</v>
       </c>
     </row>
     <row r="71">
@@ -2245,7 +2245,7 @@
         <v>1UN</v>
       </c>
       <c r="H71" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/251356.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/251356.jpg_x000d_</v>
       </c>
     </row>
     <row r="72">
@@ -2256,22 +2256,22 @@
         <v>GATO</v>
       </c>
       <c r="C72" t="str">
-        <v>773851</v>
+        <v>773672</v>
       </c>
       <c r="D72" t="str">
-        <v>85595800666</v>
+        <v>780410000299</v>
       </c>
       <c r="E72" t="str">
-        <v>PURE ATUN/SALMON 56</v>
+        <v>DELICIAS ATUN 56</v>
       </c>
       <c r="F72" t="str">
-        <v>CHURU</v>
+        <v>CHAMPION CAT</v>
       </c>
       <c r="G72" t="str">
         <v>56GR</v>
       </c>
       <c r="H72" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/773851.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/773672.jpg_x000d_</v>
       </c>
     </row>
     <row r="73">
@@ -2297,7 +2297,7 @@
         <v>56GR</v>
       </c>
       <c r="H73" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/773673.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/773673.jpg_x000d_</v>
       </c>
     </row>
     <row r="74">
@@ -2308,22 +2308,22 @@
         <v>GATO</v>
       </c>
       <c r="C74" t="str">
-        <v>773672</v>
+        <v>773851</v>
       </c>
       <c r="D74" t="str">
-        <v>780410000299</v>
+        <v>85595800666</v>
       </c>
       <c r="E74" t="str">
-        <v>DELICIAS ATUN 56</v>
+        <v>PURE ATUN/SALMON 56</v>
       </c>
       <c r="F74" t="str">
-        <v>CHAMPION CAT</v>
+        <v>CHURU</v>
       </c>
       <c r="G74" t="str">
         <v>56GR</v>
       </c>
       <c r="H74" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/773672.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/773851.jpg_x000d_</v>
       </c>
     </row>
     <row r="75">
@@ -2331,25 +2331,25 @@
         <v>13</v>
       </c>
       <c r="B75" t="str">
-        <v>DETERGENTES - LIQUIDO</v>
+        <v>CONTINUOS</v>
       </c>
       <c r="C75" t="str">
-        <v>643185</v>
+        <v>522947</v>
       </c>
       <c r="D75" t="str">
-        <v>750043512694</v>
+        <v>780501000279</v>
       </c>
       <c r="E75" t="str">
-        <v>ARIEL DOWNY 1.2LT</v>
+        <v>REC ACEITE MANZAN X3</v>
       </c>
       <c r="F75" t="str">
-        <v>ARIEL</v>
+        <v>AIRWICK</v>
       </c>
       <c r="G75" t="str">
-        <v>1200LT</v>
+        <v>63ML</v>
       </c>
       <c r="H75" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/643185.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/522947.jpg_x000d_</v>
       </c>
     </row>
     <row r="76">
@@ -2357,25 +2357,25 @@
         <v>13</v>
       </c>
       <c r="B76" t="str">
-        <v>DETERGENTES - LIQUIDO</v>
+        <v>CONTINUOS</v>
       </c>
       <c r="C76" t="str">
-        <v>623808</v>
+        <v>558509</v>
       </c>
       <c r="D76" t="str">
-        <v>750043512201</v>
+        <v>779052000691</v>
       </c>
       <c r="E76" t="str">
-        <v>ARIEL RECARGA 1.2LT</v>
+        <v>REC AMB AUT PROMO X2</v>
       </c>
       <c r="F76" t="str">
-        <v>ARIEL</v>
+        <v>GLADE</v>
       </c>
       <c r="G76" t="str">
-        <v>1200ML</v>
+        <v>540ML</v>
       </c>
       <c r="H76" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/623808.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/558509.jpg_x000d_</v>
       </c>
     </row>
     <row r="77">
@@ -2383,25 +2383,25 @@
         <v>13</v>
       </c>
       <c r="B77" t="str">
-        <v>LIMPIADORES BAÑO</v>
+        <v>CONTINUOS</v>
       </c>
       <c r="C77" t="str">
-        <v>625898</v>
+        <v>805983</v>
       </c>
       <c r="D77" t="str">
-        <v>779052002395</v>
+        <v>779052099598</v>
       </c>
       <c r="E77" t="str">
-        <v>PASTILLA WC AZUL X3</v>
+        <v>REC AMB AUT MANZANA</v>
       </c>
       <c r="F77" t="str">
-        <v>LYSOFORM</v>
+        <v>GLADE</v>
       </c>
       <c r="G77" t="str">
-        <v>120GR</v>
+        <v>270ML</v>
       </c>
       <c r="H77" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/625898.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/805983.jpg_x000d_</v>
       </c>
     </row>
     <row r="78">
@@ -2409,25 +2409,25 @@
         <v>13</v>
       </c>
       <c r="B78" t="str">
-        <v>CONTINUOS</v>
+        <v>DETERGENTES - LIQUIDO</v>
       </c>
       <c r="C78" t="str">
-        <v>805983</v>
+        <v>623808</v>
       </c>
       <c r="D78" t="str">
-        <v>779052099598</v>
+        <v>750043512201</v>
       </c>
       <c r="E78" t="str">
-        <v>REC AMB AUT MANZANA</v>
+        <v>ARIEL RECARGA 1.2LT</v>
       </c>
       <c r="F78" t="str">
-        <v>GLADE</v>
+        <v>ARIEL</v>
       </c>
       <c r="G78" t="str">
-        <v>270ML</v>
+        <v>1200ML</v>
       </c>
       <c r="H78" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/805983.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/623808.jpg_x000d_</v>
       </c>
     </row>
     <row r="79">
@@ -2435,25 +2435,25 @@
         <v>13</v>
       </c>
       <c r="B79" t="str">
-        <v>CONTINUOS</v>
+        <v>DETERGENTES - LIQUIDO</v>
       </c>
       <c r="C79" t="str">
-        <v>558509</v>
+        <v>643185</v>
       </c>
       <c r="D79" t="str">
-        <v>779052000691</v>
+        <v>750043512694</v>
       </c>
       <c r="E79" t="str">
-        <v>REC AMB AUT PROMO X2</v>
+        <v>ARIEL DOWNY 1.2LT</v>
       </c>
       <c r="F79" t="str">
-        <v>GLADE</v>
+        <v>ARIEL</v>
       </c>
       <c r="G79" t="str">
-        <v>540ML</v>
+        <v>1200LT</v>
       </c>
       <c r="H79" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/558509.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/643185.jpg_x000d_</v>
       </c>
     </row>
     <row r="80">
@@ -2461,25 +2461,25 @@
         <v>13</v>
       </c>
       <c r="B80" t="str">
-        <v>CONTINUOS</v>
+        <v>LIMPIADORES BAÑO</v>
       </c>
       <c r="C80" t="str">
-        <v>522947</v>
+        <v>625898</v>
       </c>
       <c r="D80" t="str">
-        <v>780501000279</v>
+        <v>779052002395</v>
       </c>
       <c r="E80" t="str">
-        <v>REC ACEITE MANZAN X3</v>
+        <v>PASTILLA WC AZUL X3</v>
       </c>
       <c r="F80" t="str">
-        <v>AIRWICK</v>
+        <v>LYSOFORM</v>
       </c>
       <c r="G80" t="str">
-        <v>63ML</v>
+        <v>120GR</v>
       </c>
       <c r="H80" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/522947.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/625898.jpg_x000d_</v>
       </c>
     </row>
     <row r="81">
@@ -2493,7 +2493,7 @@
         <v>650825</v>
       </c>
       <c r="D81" t="str">
-        <v>750044000000</v>
+        <v>750043513059</v>
       </c>
       <c r="E81" t="str">
         <v>PREMIUM CARE XXG112</v>
@@ -2505,7 +2505,7 @@
         <v>112UN</v>
       </c>
       <c r="H81" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/650825.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/650825.jpg_x000d_</v>
       </c>
     </row>
     <row r="82">
@@ -2531,7 +2531,7 @@
         <v>850GR</v>
       </c>
       <c r="H82" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/668696.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/668696.jpg_x000d_</v>
       </c>
     </row>
     <row r="83">
@@ -2557,7 +2557,7 @@
         <v>30ML</v>
       </c>
       <c r="H83" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/5079151.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/5079151.jpg_x000d_</v>
       </c>
     </row>
     <row r="84">
@@ -2568,22 +2568,22 @@
         <v>BARRAS DE CHOCOLATES</v>
       </c>
       <c r="C84" t="str">
-        <v>667115</v>
+        <v>108824</v>
       </c>
       <c r="D84" t="str">
-        <v>4000053681</v>
+        <v>4000051425</v>
       </c>
       <c r="E84" t="str">
-        <v>MYM PLAIN SINGLES</v>
+        <v>SNICKERS SING</v>
       </c>
       <c r="F84" t="str">
-        <v>M Y M</v>
+        <v>SNICKERS</v>
       </c>
       <c r="G84" t="str">
-        <v>48GR</v>
+        <v>53GR</v>
       </c>
       <c r="H84" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/667115.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/108824.jpg_x000d_</v>
       </c>
     </row>
     <row r="85">
@@ -2594,22 +2594,22 @@
         <v>BARRAS DE CHOCOLATES</v>
       </c>
       <c r="C85" t="str">
-        <v>108824</v>
+        <v>579083</v>
       </c>
       <c r="D85" t="str">
-        <v>4000051425</v>
+        <v>780223097532</v>
       </c>
       <c r="E85" t="str">
-        <v>SNICKERS SING</v>
+        <v>BARRA PRESTIGIO COUN</v>
       </c>
       <c r="F85" t="str">
-        <v>SNICKERS</v>
+        <v>NESTLE</v>
       </c>
       <c r="G85" t="str">
-        <v>53GR</v>
+        <v>1UN</v>
       </c>
       <c r="H85" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/108824.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/579083.jpg_x000d_</v>
       </c>
     </row>
     <row r="86">
@@ -2620,22 +2620,22 @@
         <v>BARRAS DE CHOCOLATES</v>
       </c>
       <c r="C86" t="str">
-        <v>881021</v>
+        <v>591691</v>
       </c>
       <c r="D86" t="str">
-        <v>750227191205</v>
+        <v>761303558877</v>
       </c>
       <c r="E86" t="str">
-        <v>SNICKERS ALMOND SING</v>
+        <v>SAHNE NUSS 30GRS</v>
       </c>
       <c r="F86" t="str">
-        <v>SNICKERS</v>
+        <v>SAHNE NUSS</v>
       </c>
       <c r="G86" t="str">
-        <v>43GR</v>
+        <v>30GR</v>
       </c>
       <c r="H86" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/881021.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/591691.jpg_x000d_</v>
       </c>
     </row>
     <row r="87">
@@ -2646,22 +2646,22 @@
         <v>BARRAS DE CHOCOLATES</v>
       </c>
       <c r="C87" t="str">
-        <v>591691</v>
+        <v>667115</v>
       </c>
       <c r="D87" t="str">
-        <v>761303558877</v>
+        <v>4000053681</v>
       </c>
       <c r="E87" t="str">
-        <v>SAHNE NUSS 30GRS</v>
+        <v>MYM PLAIN SINGLES</v>
       </c>
       <c r="F87" t="str">
-        <v>SAHNE NUSS</v>
+        <v>M Y M</v>
       </c>
       <c r="G87" t="str">
-        <v>30GR</v>
+        <v>48GR</v>
       </c>
       <c r="H87" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/591691.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/667115.jpg_x000d_</v>
       </c>
     </row>
     <row r="88">
@@ -2687,7 +2687,7 @@
         <v>41GR</v>
       </c>
       <c r="H88" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/678337.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/678337.jpg_x000d_</v>
       </c>
     </row>
     <row r="89">
@@ -2698,22 +2698,22 @@
         <v>BARRAS DE CHOCOLATES</v>
       </c>
       <c r="C89" t="str">
-        <v>5066903</v>
+        <v>881021</v>
       </c>
       <c r="D89" t="str">
-        <v>750227191732</v>
+        <v>750227191205</v>
       </c>
       <c r="E89" t="str">
-        <v>MILKY WAY</v>
+        <v>SNICKERS ALMOND SING</v>
       </c>
       <c r="F89" t="str">
-        <v>MILKY WAY</v>
+        <v>SNICKERS</v>
       </c>
       <c r="G89" t="str">
-        <v>48GR</v>
+        <v>43GR</v>
       </c>
       <c r="H89" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/5066903.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/881021.jpg_x000d_</v>
       </c>
     </row>
     <row r="90">
@@ -2724,22 +2724,22 @@
         <v>BARRAS DE CHOCOLATES</v>
       </c>
       <c r="C90" t="str">
-        <v>5079140</v>
+        <v>5066903</v>
       </c>
       <c r="D90" t="str">
-        <v>7890943</v>
+        <v>750227191732</v>
       </c>
       <c r="E90" t="str">
-        <v>CHOC FERRERO ROCHER</v>
+        <v>MILKY WAY</v>
       </c>
       <c r="F90" t="str">
-        <v>FERRERO</v>
+        <v>MILKY WAY</v>
       </c>
       <c r="G90" t="str">
-        <v>3UN</v>
+        <v>48GR</v>
       </c>
       <c r="H90" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/5079140.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/5066903.jpg_x000d_</v>
       </c>
     </row>
     <row r="91">
@@ -2750,22 +2750,22 @@
         <v>BARRAS DE CHOCOLATES</v>
       </c>
       <c r="C91" t="str">
-        <v>579083</v>
+        <v>5079140</v>
       </c>
       <c r="D91" t="str">
-        <v>780223097532</v>
+        <v>7890943</v>
       </c>
       <c r="E91" t="str">
-        <v>BARRA PRESTIGIO COUN</v>
+        <v>CHOC FERRERO ROCHER</v>
       </c>
       <c r="F91" t="str">
-        <v>NESTLE</v>
+        <v>FERRERO</v>
       </c>
       <c r="G91" t="str">
-        <v>1UN</v>
+        <v>3UN</v>
       </c>
       <c r="H91" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/579083.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/5079140.jpg_x000d_</v>
       </c>
     </row>
     <row r="92">
@@ -2776,13 +2776,13 @@
         <v>CHICLES</v>
       </c>
       <c r="C92" t="str">
-        <v>529567</v>
+        <v>529561</v>
       </c>
       <c r="D92" t="str">
-        <v>400990041208</v>
+        <v>400990041211</v>
       </c>
       <c r="E92" t="str">
-        <v>CHICLE BOT MENTA 46</v>
+        <v>CHICLE BOT SPEAR 46</v>
       </c>
       <c r="F92" t="str">
         <v>ORBIT</v>
@@ -2791,7 +2791,7 @@
         <v>1UN</v>
       </c>
       <c r="H92" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/529567.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/529561.jpg_x000d_</v>
       </c>
     </row>
     <row r="93">
@@ -2802,22 +2802,22 @@
         <v>CHICLES</v>
       </c>
       <c r="C93" t="str">
-        <v>5013001</v>
+        <v>529567</v>
       </c>
       <c r="D93" t="str">
-        <v>762220173543</v>
+        <v>400990041208</v>
       </c>
       <c r="E93" t="str">
-        <v>TRIDENT BOT FRESA</v>
+        <v>CHICLE BOT MENTA 46</v>
       </c>
       <c r="F93" t="str">
-        <v>TRIDENT</v>
+        <v>ORBIT</v>
       </c>
       <c r="G93" t="str">
-        <v>45GR</v>
+        <v>1UN</v>
       </c>
       <c r="H93" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/5013001.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/529567.jpg_x000d_</v>
       </c>
     </row>
     <row r="94">
@@ -2828,22 +2828,22 @@
         <v>CHICLES</v>
       </c>
       <c r="C94" t="str">
-        <v>529561</v>
+        <v>579001</v>
       </c>
       <c r="D94" t="str">
-        <v>400990041211</v>
+        <v>7800750</v>
       </c>
       <c r="E94" t="str">
-        <v>CHICLE BOT SPEAR 46</v>
+        <v>CHICLE BIGTIME SANDI</v>
       </c>
       <c r="F94" t="str">
-        <v>ORBIT</v>
+        <v>ARCOR</v>
       </c>
       <c r="G94" t="str">
         <v>1UN</v>
       </c>
       <c r="H94" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/529561.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/579001.jpg_x000d_</v>
       </c>
     </row>
     <row r="95">
@@ -2854,22 +2854,22 @@
         <v>CHICLES</v>
       </c>
       <c r="C95" t="str">
-        <v>588623</v>
+        <v>579002</v>
       </c>
       <c r="D95" t="str">
-        <v>5017382</v>
+        <v>7800562</v>
       </c>
       <c r="E95" t="str">
-        <v>ORBIT HIERBABUENA</v>
+        <v>CHICLE BIGTIME MENTA</v>
       </c>
       <c r="F95" t="str">
-        <v>ORBIT</v>
+        <v>ARCOR</v>
       </c>
       <c r="G95" t="str">
-        <v>14GR</v>
+        <v>1UN</v>
       </c>
       <c r="H95" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/588623.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/579002.jpg_x000d_</v>
       </c>
     </row>
     <row r="96">
@@ -2895,7 +2895,7 @@
         <v>14GR</v>
       </c>
       <c r="H96" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/588567.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/588567.jpg_x000d_</v>
       </c>
     </row>
     <row r="97">
@@ -2906,22 +2906,22 @@
         <v>CHICLES</v>
       </c>
       <c r="C97" t="str">
-        <v>716601</v>
+        <v>588623</v>
       </c>
       <c r="D97" t="str">
-        <v>2211007980</v>
+        <v>5017382</v>
       </c>
       <c r="E97" t="str">
-        <v>CHICL B TAPE ORIG</v>
+        <v>ORBIT HIERBABUENA</v>
       </c>
       <c r="F97" t="str">
-        <v>WRIGLEY</v>
+        <v>ORBIT</v>
       </c>
       <c r="G97" t="str">
-        <v>57GR</v>
+        <v>14GR</v>
       </c>
       <c r="H97" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/716601.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/588623.jpg_x000d_</v>
       </c>
     </row>
     <row r="98">
@@ -2932,22 +2932,22 @@
         <v>CHICLES</v>
       </c>
       <c r="C98" t="str">
-        <v>579002</v>
+        <v>716601</v>
       </c>
       <c r="D98" t="str">
-        <v>7800562</v>
+        <v>2211007980</v>
       </c>
       <c r="E98" t="str">
-        <v>CHICLE BIGTIME MENTA</v>
+        <v>CHICL B TAPE ORIG</v>
       </c>
       <c r="F98" t="str">
-        <v>ARCOR</v>
+        <v>WRIGLEY</v>
       </c>
       <c r="G98" t="str">
-        <v>1UN</v>
+        <v>57GR</v>
       </c>
       <c r="H98" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/579002.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/716601.jpg_x000d_</v>
       </c>
     </row>
     <row r="99">
@@ -2973,7 +2973,7 @@
         <v>45GR</v>
       </c>
       <c r="H99" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/5011508.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/5011508.jpg_x000d_</v>
       </c>
     </row>
     <row r="100">
@@ -2984,22 +2984,22 @@
         <v>CHICLES</v>
       </c>
       <c r="C100" t="str">
-        <v>579001</v>
+        <v>5013001</v>
       </c>
       <c r="D100" t="str">
-        <v>7800750</v>
+        <v>762220173543</v>
       </c>
       <c r="E100" t="str">
-        <v>CHICLE BIGTIME SANDI</v>
+        <v>TRIDENT BOT FRESA</v>
       </c>
       <c r="F100" t="str">
-        <v>ARCOR</v>
+        <v>TRIDENT</v>
       </c>
       <c r="G100" t="str">
-        <v>1UN</v>
+        <v>45GR</v>
       </c>
       <c r="H100" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/579001.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/5013001.jpg_x000d_</v>
       </c>
     </row>
     <row r="101">
@@ -3025,7 +3025,7 @@
         <v>52GR</v>
       </c>
       <c r="H101" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/554113.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/554113.jpg_x000d_</v>
       </c>
     </row>
     <row r="102">
@@ -3051,7 +3051,7 @@
         <v>41GR</v>
       </c>
       <c r="H102" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/5024951.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/5024951.jpg_x000d_</v>
       </c>
     </row>
     <row r="103">
@@ -3062,22 +3062,22 @@
         <v>MANTEQUILLAS</v>
       </c>
       <c r="C103" t="str">
-        <v>5069603</v>
+        <v>255656</v>
       </c>
       <c r="D103" t="str">
-        <v>780291000865</v>
+        <v>780292077616</v>
       </c>
       <c r="E103" t="str">
         <v>MANTEQUILLA</v>
       </c>
       <c r="F103" t="str">
-        <v>LAS PARCELAS</v>
+        <v>LOS ALERCES</v>
       </c>
       <c r="G103" t="str">
-        <v>200GR</v>
+        <v>250GR</v>
       </c>
       <c r="H103" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/5069603.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/255656.jpg_x000d_</v>
       </c>
     </row>
     <row r="104">
@@ -3088,22 +3088,22 @@
         <v>MANTEQUILLAS</v>
       </c>
       <c r="C104" t="str">
-        <v>255656</v>
+        <v>264090</v>
       </c>
       <c r="D104" t="str">
-        <v>780292077616</v>
+        <v>780291015060</v>
       </c>
       <c r="E104" t="str">
-        <v>MANTEQUILLA</v>
+        <v>MANTEQUILLA CALO</v>
       </c>
       <c r="F104" t="str">
-        <v>LOS ALERCES</v>
+        <v>CALO</v>
       </c>
       <c r="G104" t="str">
         <v>250GR</v>
       </c>
       <c r="H104" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/255656.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/264090.jpg_x000d_</v>
       </c>
     </row>
     <row r="105">
@@ -3114,10 +3114,10 @@
         <v>MANTEQUILLAS</v>
       </c>
       <c r="C105" t="str">
-        <v>264116</v>
+        <v>264104</v>
       </c>
       <c r="D105" t="str">
-        <v>780292020330</v>
+        <v>780292020210</v>
       </c>
       <c r="E105" t="str">
         <v>MANTEQUILLA</v>
@@ -3126,10 +3126,10 @@
         <v>COLUN</v>
       </c>
       <c r="G105" t="str">
-        <v>250GR</v>
+        <v>125GR</v>
       </c>
       <c r="H105" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/264116.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/264104.jpg_x000d_</v>
       </c>
     </row>
     <row r="106">
@@ -3140,22 +3140,22 @@
         <v>MANTEQUILLAS</v>
       </c>
       <c r="C106" t="str">
-        <v>264090</v>
+        <v>264116</v>
       </c>
       <c r="D106" t="str">
-        <v>780291015060</v>
+        <v>780292020330</v>
       </c>
       <c r="E106" t="str">
-        <v>MANTEQUILLA CALO</v>
+        <v>MANTEQUILLA</v>
       </c>
       <c r="F106" t="str">
-        <v>CALO</v>
+        <v>COLUN</v>
       </c>
       <c r="G106" t="str">
         <v>250GR</v>
       </c>
       <c r="H106" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/264090.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/264116.jpg_x000d_</v>
       </c>
     </row>
     <row r="107">
@@ -3166,22 +3166,22 @@
         <v>MANTEQUILLAS</v>
       </c>
       <c r="C107" t="str">
-        <v>522642</v>
+        <v>264142</v>
       </c>
       <c r="D107" t="str">
-        <v>780870950262</v>
+        <v>780292020340</v>
       </c>
       <c r="E107" t="str">
-        <v>MANTEQ. LIDER 250G</v>
+        <v>MANTEQUILLA SIN SAL</v>
       </c>
       <c r="F107" t="str">
-        <v>LIDER</v>
+        <v>COLUN</v>
       </c>
       <c r="G107" t="str">
         <v>250GR</v>
       </c>
       <c r="H107" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/522642.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/264142.jpg_x000d_</v>
       </c>
     </row>
     <row r="108">
@@ -3207,7 +3207,7 @@
         <v>125GR</v>
       </c>
       <c r="H108" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/264383.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/264383.jpg_x000d_</v>
       </c>
     </row>
     <row r="109">
@@ -3218,22 +3218,22 @@
         <v>MANTEQUILLAS</v>
       </c>
       <c r="C109" t="str">
-        <v>264142</v>
+        <v>264395</v>
       </c>
       <c r="D109" t="str">
-        <v>780292020340</v>
+        <v>780290012101</v>
       </c>
       <c r="E109" t="str">
-        <v>MANTEQUILLA SIN SAL</v>
+        <v>MANTEQUILLA</v>
       </c>
       <c r="F109" t="str">
-        <v>COLUN</v>
+        <v>SOPROLE</v>
       </c>
       <c r="G109" t="str">
         <v>250GR</v>
       </c>
       <c r="H109" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/264142.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/264395.jpg_x000d_</v>
       </c>
     </row>
     <row r="110">
@@ -3244,22 +3244,22 @@
         <v>MANTEQUILLAS</v>
       </c>
       <c r="C110" t="str">
-        <v>264104</v>
+        <v>522642</v>
       </c>
       <c r="D110" t="str">
-        <v>780292020210</v>
+        <v>780870950262</v>
       </c>
       <c r="E110" t="str">
-        <v>MANTEQUILLA</v>
+        <v>MANTEQ. LIDER 250G</v>
       </c>
       <c r="F110" t="str">
-        <v>COLUN</v>
+        <v>LIDER</v>
       </c>
       <c r="G110" t="str">
-        <v>125GR</v>
+        <v>250GR</v>
       </c>
       <c r="H110" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/264104.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/522642.jpg_x000d_</v>
       </c>
     </row>
     <row r="111">
@@ -3270,22 +3270,22 @@
         <v>MANTEQUILLAS</v>
       </c>
       <c r="C111" t="str">
-        <v>264395</v>
+        <v>5069603</v>
       </c>
       <c r="D111" t="str">
-        <v>780290012101</v>
+        <v>780291000865</v>
       </c>
       <c r="E111" t="str">
         <v>MANTEQUILLA</v>
       </c>
       <c r="F111" t="str">
-        <v>SOPROLE</v>
+        <v>LAS PARCELAS</v>
       </c>
       <c r="G111" t="str">
-        <v>250GR</v>
+        <v>200GR</v>
       </c>
       <c r="H111" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/264395.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/5069603.jpg_x000d_</v>
       </c>
     </row>
     <row r="112">
@@ -3311,7 +3311,7 @@
         <v>1000GR</v>
       </c>
       <c r="H112" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/493752.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/493752.jpg_x000d_</v>
       </c>
     </row>
     <row r="113">
@@ -3337,7 +3337,7 @@
         <v>185GR</v>
       </c>
       <c r="H113" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/515150.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/515150.jpg_x000d_</v>
       </c>
     </row>
     <row r="114">
@@ -3345,25 +3345,25 @@
         <v>92</v>
       </c>
       <c r="B114" t="str">
-        <v>ESPECIES</v>
+        <v>ABARROTES - ATUN</v>
       </c>
       <c r="C114" t="str">
-        <v>5079113</v>
+        <v>685750</v>
       </c>
       <c r="D114" t="str">
-        <v>780241000044</v>
+        <v>780462147101</v>
       </c>
       <c r="E114" t="str">
-        <v>MOLI MIX PIMIENTA 43</v>
+        <v>ATUN AGUA 160 RC</v>
       </c>
       <c r="F114" t="str">
-        <v>GOURMET</v>
+        <v>ROBINSON CRUSOE</v>
       </c>
       <c r="G114" t="str">
-        <v>43GR</v>
+        <v>104GR</v>
       </c>
       <c r="H114" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/5079113.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/685750.jpg_x000d_</v>
       </c>
     </row>
     <row r="115">
@@ -3371,25 +3371,25 @@
         <v>92</v>
       </c>
       <c r="B115" t="str">
-        <v>SALSA TOMATE</v>
+        <v>ABARROTES - ATUN</v>
       </c>
       <c r="C115" t="str">
-        <v>311058</v>
+        <v>685751</v>
       </c>
       <c r="D115" t="str">
-        <v>780257535517</v>
+        <v>780462147102</v>
       </c>
       <c r="E115" t="str">
-        <v>PACK SALSA TOM ITALI</v>
+        <v>ATUN ACEITE 160 RC</v>
       </c>
       <c r="F115" t="str">
-        <v>POMAROLA</v>
+        <v>ROBINSON CRUSOE</v>
       </c>
       <c r="G115" t="str">
-        <v>1200GR</v>
+        <v>104GR</v>
       </c>
       <c r="H115" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/311058.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/685751.jpg_x000d_</v>
       </c>
     </row>
     <row r="116">
@@ -3397,25 +3397,25 @@
         <v>92</v>
       </c>
       <c r="B116" t="str">
-        <v>MANJAR</v>
+        <v>ABARROTES - ATUN</v>
       </c>
       <c r="C116" t="str">
-        <v>271082</v>
+        <v>753370</v>
       </c>
       <c r="D116" t="str">
-        <v>780295000489</v>
+        <v>770236700390</v>
       </c>
       <c r="E116" t="str">
-        <v>MANJAR</v>
+        <v>ATUN LOMITO AC 160</v>
       </c>
       <c r="F116" t="str">
-        <v>NESTLE</v>
+        <v>VAN CAMPS</v>
       </c>
       <c r="G116" t="str">
-        <v>1KG</v>
+        <v>104GR</v>
       </c>
       <c r="H116" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/271082.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/753370.jpg_x000d_</v>
       </c>
     </row>
     <row r="117">
@@ -3423,25 +3423,25 @@
         <v>92</v>
       </c>
       <c r="B117" t="str">
-        <v>REGALO - PREMIUM</v>
+        <v>ABARROTES - ATUN</v>
       </c>
       <c r="C117" t="str">
-        <v>814218</v>
+        <v>753371</v>
       </c>
       <c r="D117" t="str">
-        <v>746676293901</v>
+        <v>770236700391</v>
       </c>
       <c r="E117" t="str">
-        <v>GALLETA PIRULIN</v>
+        <v>ATUN LOMITO AGUA 160</v>
       </c>
       <c r="F117" t="str">
-        <v>PIRULIN</v>
+        <v>VAN CAMPS</v>
       </c>
       <c r="G117" t="str">
-        <v>155GR</v>
+        <v>104GR</v>
       </c>
       <c r="H117" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/814218.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/753371.jpg_x000d_</v>
       </c>
     </row>
     <row r="118">
@@ -3449,25 +3449,25 @@
         <v>92</v>
       </c>
       <c r="B118" t="str">
-        <v>CHOCOLATE PARA COCINAR</v>
+        <v>ABARROTES - ATUN</v>
       </c>
       <c r="C118" t="str">
-        <v>5079112</v>
+        <v>771360</v>
       </c>
       <c r="D118" t="str">
-        <v>780241000318</v>
+        <v>885846300344</v>
       </c>
       <c r="E118" t="str">
-        <v>CHIP SABOR CHOCOLATE</v>
+        <v>ATUN LOMITO AC 160</v>
       </c>
       <c r="F118" t="str">
-        <v>GOURMET</v>
+        <v>LIDER</v>
       </c>
       <c r="G118" t="str">
-        <v>200GR</v>
+        <v>104GR</v>
       </c>
       <c r="H118" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/5079112.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/771360.jpg_x000d_</v>
       </c>
     </row>
     <row r="119">
@@ -3475,25 +3475,25 @@
         <v>92</v>
       </c>
       <c r="B119" t="str">
-        <v>ABARROTES - ATUN</v>
+        <v>AVELLANAS - CASTANAS</v>
       </c>
       <c r="C119" t="str">
-        <v>753371</v>
+        <v>254250</v>
       </c>
       <c r="D119" t="str">
-        <v>770236700391</v>
+        <v>780480030005</v>
       </c>
       <c r="E119" t="str">
-        <v>ATUN LOMITO AGUA 160</v>
+        <v>CASTANAS DE CAJU 200</v>
       </c>
       <c r="F119" t="str">
-        <v>VAN CAMPS</v>
+        <v>MILLANTU</v>
       </c>
       <c r="G119" t="str">
-        <v>104GR</v>
+        <v>200GR</v>
       </c>
       <c r="H119" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/753371.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/254250.jpg_x000d_</v>
       </c>
     </row>
     <row r="120">
@@ -3501,25 +3501,25 @@
         <v>92</v>
       </c>
       <c r="B120" t="str">
-        <v>ABARROTES - ATUN</v>
+        <v>AVELLANAS - CASTANAS</v>
       </c>
       <c r="C120" t="str">
-        <v>685750</v>
+        <v>686094</v>
       </c>
       <c r="D120" t="str">
-        <v>780462147101</v>
+        <v>780462717110</v>
       </c>
       <c r="E120" t="str">
-        <v>ATUN AGUA 160 RC</v>
+        <v>CASTANA SALADA</v>
       </c>
       <c r="F120" t="str">
-        <v>ROBINSON CRUSOE</v>
+        <v>LIDER</v>
       </c>
       <c r="G120" t="str">
-        <v>104GR</v>
+        <v>80GR</v>
       </c>
       <c r="H120" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/685750.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/686094.jpg_x000d_</v>
       </c>
     </row>
     <row r="121">
@@ -3527,25 +3527,25 @@
         <v>92</v>
       </c>
       <c r="B121" t="str">
-        <v>ABARROTES - ATUN</v>
+        <v>CAFE INSTANTANEO</v>
       </c>
       <c r="C121" t="str">
-        <v>685751</v>
+        <v>130290</v>
       </c>
       <c r="D121" t="str">
-        <v>780462147102</v>
+        <v>844529047249</v>
       </c>
       <c r="E121" t="str">
-        <v>ATUN ACEITE 160 RC</v>
+        <v>CAFÉ INS TRDICION210</v>
       </c>
       <c r="F121" t="str">
-        <v>ROBINSON CRUSOE</v>
+        <v>NESCAFE</v>
       </c>
       <c r="G121" t="str">
-        <v>104GR</v>
+        <v>210GR</v>
       </c>
       <c r="H121" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/685751.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/130290.jpg_x000d_</v>
       </c>
     </row>
     <row r="122">
@@ -3553,25 +3553,25 @@
         <v>92</v>
       </c>
       <c r="B122" t="str">
-        <v>ABARROTES - ATUN</v>
+        <v>CAFE INSTANTANEO</v>
       </c>
       <c r="C122" t="str">
-        <v>753370</v>
+        <v>287613</v>
       </c>
       <c r="D122" t="str">
-        <v>770236700390</v>
+        <v>770721163146</v>
       </c>
       <c r="E122" t="str">
-        <v>ATUN LOMITO AC 160</v>
+        <v>CAFÉ LIOF INSTAN 95</v>
       </c>
       <c r="F122" t="str">
-        <v>VAN CAMPS</v>
+        <v>JUAN VALDEZ</v>
       </c>
       <c r="G122" t="str">
-        <v>104GR</v>
+        <v>95GR</v>
       </c>
       <c r="H122" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/753370.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/287613.jpg_x000d_</v>
       </c>
     </row>
     <row r="123">
@@ -3579,25 +3579,25 @@
         <v>92</v>
       </c>
       <c r="B123" t="str">
-        <v>ABARROTES - ATUN</v>
+        <v>CAFE INSTANTANEO</v>
       </c>
       <c r="C123" t="str">
-        <v>771360</v>
+        <v>400818</v>
       </c>
       <c r="D123" t="str">
-        <v>885846300344</v>
+        <v>761303390728</v>
       </c>
       <c r="E123" t="str">
-        <v>ATUN LOMITO AC 160</v>
+        <v>CAFÉ INS TRDICION150</v>
       </c>
       <c r="F123" t="str">
-        <v>LIDER</v>
+        <v>NESCAFE</v>
       </c>
       <c r="G123" t="str">
-        <v>104GR</v>
+        <v>150GR</v>
       </c>
       <c r="H123" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/771360.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/400818.jpg_x000d_</v>
       </c>
     </row>
     <row r="124">
@@ -3605,25 +3605,25 @@
         <v>92</v>
       </c>
       <c r="B124" t="str">
-        <v>AVELLANAS - CASTANAS</v>
+        <v>CAFE INSTANTANEO</v>
       </c>
       <c r="C124" t="str">
-        <v>686094</v>
+        <v>556085</v>
       </c>
       <c r="D124" t="str">
-        <v>780462717110</v>
+        <v>780295000272</v>
       </c>
       <c r="E124" t="str">
-        <v>CASTANA SALADA</v>
+        <v>CAFÉ INS TRDICION400</v>
       </c>
       <c r="F124" t="str">
-        <v>LIDER</v>
+        <v>NESCAFE</v>
       </c>
       <c r="G124" t="str">
-        <v>80GR</v>
+        <v>400GR</v>
       </c>
       <c r="H124" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/686094.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/556085.jpg_x000d_</v>
       </c>
     </row>
     <row r="125">
@@ -3631,25 +3631,25 @@
         <v>92</v>
       </c>
       <c r="B125" t="str">
-        <v>AVELLANAS - CASTANAS</v>
+        <v>CAFE INSTANTANEO</v>
       </c>
       <c r="C125" t="str">
-        <v>254250</v>
+        <v>625713</v>
       </c>
       <c r="D125" t="str">
-        <v>780480030005</v>
+        <v>770721163186</v>
       </c>
       <c r="E125" t="str">
-        <v>CASTANAS DE CAJU 200</v>
+        <v>CAFE LIOF CHOCOLATE</v>
       </c>
       <c r="F125" t="str">
-        <v>MILLANTU</v>
+        <v>JUAN VALDEZ</v>
       </c>
       <c r="G125" t="str">
-        <v>200GR</v>
+        <v>95GR</v>
       </c>
       <c r="H125" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/254250.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/625713.jpg_x000d_</v>
       </c>
     </row>
     <row r="126">
@@ -3660,13 +3660,13 @@
         <v>CAFE INSTANTANEO</v>
       </c>
       <c r="C126" t="str">
-        <v>287613</v>
+        <v>673697</v>
       </c>
       <c r="D126" t="str">
-        <v>770721163146</v>
+        <v>770721163216</v>
       </c>
       <c r="E126" t="str">
-        <v>CAFÉ LIOF INSTAN 95</v>
+        <v>CAFÉ LIOF VAINILLA</v>
       </c>
       <c r="F126" t="str">
         <v>JUAN VALDEZ</v>
@@ -3675,7 +3675,7 @@
         <v>95GR</v>
       </c>
       <c r="H126" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/287613.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/673697.jpg_x000d_</v>
       </c>
     </row>
     <row r="127">
@@ -3686,22 +3686,22 @@
         <v>CAFE INSTANTANEO</v>
       </c>
       <c r="C127" t="str">
-        <v>693680</v>
+        <v>693677</v>
       </c>
       <c r="D127" t="str">
-        <v>880105570927</v>
+        <v>761303707139</v>
       </c>
       <c r="E127" t="str">
-        <v>CAFE FINA SELECC 200</v>
+        <v>CAFE FINA EXPRESO</v>
       </c>
       <c r="F127" t="str">
         <v>NESCAFE</v>
       </c>
       <c r="G127" t="str">
-        <v>200GR</v>
+        <v>100GR</v>
       </c>
       <c r="H127" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/693680.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/693677.jpg_x000d_</v>
       </c>
     </row>
     <row r="128">
@@ -3712,22 +3712,22 @@
         <v>CAFE INSTANTANEO</v>
       </c>
       <c r="C128" t="str">
-        <v>556085</v>
+        <v>693679</v>
       </c>
       <c r="D128" t="str">
-        <v>780295000272</v>
+        <v>880105570921</v>
       </c>
       <c r="E128" t="str">
-        <v>CAFÉ INS TRDICION400</v>
+        <v>CAFE FINA SELECC 100</v>
       </c>
       <c r="F128" t="str">
         <v>NESCAFE</v>
       </c>
       <c r="G128" t="str">
-        <v>400GR</v>
+        <v>100GR</v>
       </c>
       <c r="H128" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/556085.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/693679.jpg_x000d_</v>
       </c>
     </row>
     <row r="129">
@@ -3738,22 +3738,22 @@
         <v>CAFE INSTANTANEO</v>
       </c>
       <c r="C129" t="str">
-        <v>673697</v>
+        <v>693680</v>
       </c>
       <c r="D129" t="str">
-        <v>770721163216</v>
+        <v>880105570927</v>
       </c>
       <c r="E129" t="str">
-        <v>CAFÉ LIOF VAINILLA</v>
+        <v>CAFE FINA SELECC 200</v>
       </c>
       <c r="F129" t="str">
-        <v>JUAN VALDEZ</v>
+        <v>NESCAFE</v>
       </c>
       <c r="G129" t="str">
-        <v>95GR</v>
+        <v>200GR</v>
       </c>
       <c r="H129" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/673697.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/693680.jpg_x000d_</v>
       </c>
     </row>
     <row r="130">
@@ -3764,13 +3764,13 @@
         <v>CAFE INSTANTANEO</v>
       </c>
       <c r="C130" t="str">
-        <v>5025557</v>
+        <v>693681</v>
       </c>
       <c r="D130" t="str">
-        <v>750647511697</v>
+        <v>761303706972</v>
       </c>
       <c r="E130" t="str">
-        <v>CAFE FINA DECAF</v>
+        <v>CAFE FINA ALTA RICA</v>
       </c>
       <c r="F130" t="str">
         <v>NESCAFE</v>
@@ -3779,7 +3779,7 @@
         <v>100GR</v>
       </c>
       <c r="H130" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/5025557.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/693681.jpg_x000d_</v>
       </c>
     </row>
     <row r="131">
@@ -3790,22 +3790,22 @@
         <v>CAFE INSTANTANEO</v>
       </c>
       <c r="C131" t="str">
-        <v>712156</v>
+        <v>693682</v>
       </c>
       <c r="D131" t="str">
-        <v>79819006036</v>
+        <v>761303707136</v>
       </c>
       <c r="E131" t="str">
-        <v>CAFE LIOF STIR IT UP</v>
+        <v>CAFE FINA COLOMBIA</v>
       </c>
       <c r="F131" t="str">
-        <v>MARLEY COFFEE</v>
+        <v>NESCAFE</v>
       </c>
       <c r="G131" t="str">
         <v>100GR</v>
       </c>
       <c r="H131" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/712156.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/693682.jpg_x000d_</v>
       </c>
     </row>
     <row r="132">
@@ -3816,22 +3816,22 @@
         <v>CAFE INSTANTANEO</v>
       </c>
       <c r="C132" t="str">
-        <v>693679</v>
+        <v>712156</v>
       </c>
       <c r="D132" t="str">
-        <v>880105570921</v>
+        <v>79819006036</v>
       </c>
       <c r="E132" t="str">
-        <v>CAFE FINA SELECC 100</v>
+        <v>CAFE LIOF STIR IT UP</v>
       </c>
       <c r="F132" t="str">
-        <v>NESCAFE</v>
+        <v>MARLEY COFFEE</v>
       </c>
       <c r="G132" t="str">
         <v>100GR</v>
       </c>
       <c r="H132" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/693679.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/712156.jpg_x000d_</v>
       </c>
     </row>
     <row r="133">
@@ -3842,22 +3842,22 @@
         <v>CAFE INSTANTANEO</v>
       </c>
       <c r="C133" t="str">
-        <v>625713</v>
+        <v>851752</v>
       </c>
       <c r="D133" t="str">
-        <v>770721163186</v>
+        <v>78115983847</v>
       </c>
       <c r="E133" t="str">
-        <v>CAFE LIOF CHOCOLATE</v>
+        <v>CAFÉ LIOF VIBRATION</v>
       </c>
       <c r="F133" t="str">
-        <v>JUAN VALDEZ</v>
+        <v>MARLEY COFFEE</v>
       </c>
       <c r="G133" t="str">
-        <v>95GR</v>
+        <v>100GR</v>
       </c>
       <c r="H133" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/625713.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/851752.jpg_x000d_</v>
       </c>
     </row>
     <row r="134">
@@ -3868,13 +3868,13 @@
         <v>CAFE INSTANTANEO</v>
       </c>
       <c r="C134" t="str">
-        <v>693681</v>
+        <v>5025557</v>
       </c>
       <c r="D134" t="str">
-        <v>761303706972</v>
+        <v>750647511697</v>
       </c>
       <c r="E134" t="str">
-        <v>CAFE FINA ALTA RICA</v>
+        <v>CAFE FINA DECAF</v>
       </c>
       <c r="F134" t="str">
         <v>NESCAFE</v>
@@ -3883,7 +3883,7 @@
         <v>100GR</v>
       </c>
       <c r="H134" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/693681.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/5025557.jpg_x000d_</v>
       </c>
     </row>
     <row r="135">
@@ -3894,22 +3894,22 @@
         <v>CAFE INSTANTANEO</v>
       </c>
       <c r="C135" t="str">
-        <v>693682</v>
+        <v>5041235</v>
       </c>
       <c r="D135" t="str">
-        <v>761303707136</v>
+        <v>5000042702</v>
       </c>
       <c r="E135" t="str">
-        <v>CAFE FINA COLOMBIA</v>
+        <v>CAFE MEDIUM ROAST</v>
       </c>
       <c r="F135" t="str">
-        <v>NESCAFE</v>
+        <v>STARBUCKS</v>
       </c>
       <c r="G135" t="str">
-        <v>100GR</v>
+        <v>90GR</v>
       </c>
       <c r="H135" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/693682.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/5041235.jpg_x000d_</v>
       </c>
     </row>
     <row r="136">
@@ -3917,25 +3917,25 @@
         <v>92</v>
       </c>
       <c r="B136" t="str">
-        <v>CAFE INSTANTANEO</v>
+        <v>CHOCOLATE PARA COCINAR</v>
       </c>
       <c r="C136" t="str">
-        <v>711355</v>
+        <v>5079112</v>
       </c>
       <c r="D136" t="str">
-        <v>761303891646</v>
+        <v>780241000318</v>
       </c>
       <c r="E136" t="str">
-        <v>CAFÉ STAR MED ROAST</v>
+        <v>CHIP SABOR CHOCOLATE</v>
       </c>
       <c r="F136" t="str">
-        <v>STARBUCKS</v>
+        <v>GOURMET</v>
       </c>
       <c r="G136" t="str">
-        <v>90GR</v>
+        <v>200GR</v>
       </c>
       <c r="H136" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/711355.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/5079112.jpg_x000d_</v>
       </c>
     </row>
     <row r="137">
@@ -3943,25 +3943,25 @@
         <v>92</v>
       </c>
       <c r="B137" t="str">
-        <v>CAFE INSTANTANEO</v>
+        <v>CHOCOTELLA-MANTEQUILLA MANI-DULCE</v>
       </c>
       <c r="C137" t="str">
-        <v>693677</v>
+        <v>116270</v>
       </c>
       <c r="D137" t="str">
-        <v>761303707139</v>
+        <v>789802439523</v>
       </c>
       <c r="E137" t="str">
-        <v>CAFE FINA EXPRESO</v>
+        <v>NUTELLA</v>
       </c>
       <c r="F137" t="str">
-        <v>NESCAFE</v>
+        <v>FERRERO</v>
       </c>
       <c r="G137" t="str">
-        <v>100GR</v>
+        <v>140GR</v>
       </c>
       <c r="H137" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/693677.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/116270.jpg_x000d_</v>
       </c>
     </row>
     <row r="138">
@@ -3969,25 +3969,25 @@
         <v>92</v>
       </c>
       <c r="B138" t="str">
-        <v>CAFE INSTANTANEO</v>
+        <v>CHOCOTELLA-MANTEQUILLA MANI-DULCE</v>
       </c>
       <c r="C138" t="str">
-        <v>851752</v>
+        <v>5079111</v>
       </c>
       <c r="D138" t="str">
-        <v>78115983847</v>
+        <v>8017717</v>
       </c>
       <c r="E138" t="str">
-        <v>CAFÉ LIOF VIBRATION</v>
+        <v>NUTELLA 350</v>
       </c>
       <c r="F138" t="str">
-        <v>MARLEY COFFEE</v>
+        <v>FERRERO</v>
       </c>
       <c r="G138" t="str">
-        <v>100GR</v>
+        <v>350GR</v>
       </c>
       <c r="H138" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/851752.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/5079111.jpg_x000d_</v>
       </c>
     </row>
     <row r="139">
@@ -3995,25 +3995,25 @@
         <v>92</v>
       </c>
       <c r="B139" t="str">
-        <v>CAFE INSTANTANEO</v>
+        <v>EDULCORANTES</v>
       </c>
       <c r="C139" t="str">
-        <v>130290</v>
+        <v>688804</v>
       </c>
       <c r="D139" t="str">
-        <v>844529047249</v>
+        <v>780150500087</v>
       </c>
       <c r="E139" t="str">
-        <v>CAFÉ INS TRDICION210</v>
+        <v>STEVIA LIQUIDA</v>
       </c>
       <c r="F139" t="str">
-        <v>NESCAFE</v>
+        <v>IANSA</v>
       </c>
       <c r="G139" t="str">
-        <v>210GR</v>
+        <v>350ML</v>
       </c>
       <c r="H139" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/130290.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/688804.jpg_x000d_</v>
       </c>
     </row>
     <row r="140">
@@ -4021,25 +4021,25 @@
         <v>92</v>
       </c>
       <c r="B140" t="str">
-        <v>CAFE INSTANTANEO</v>
+        <v>EDULCORANTES</v>
       </c>
       <c r="C140" t="str">
-        <v>400818</v>
+        <v>693052</v>
       </c>
       <c r="D140" t="str">
-        <v>761303390728</v>
+        <v>780955810172</v>
       </c>
       <c r="E140" t="str">
-        <v>CAFÉ INS TRDICION150</v>
+        <v>ENDULZANTE STEVIA</v>
       </c>
       <c r="F140" t="str">
-        <v>NESCAFE</v>
+        <v>DAILY</v>
       </c>
       <c r="G140" t="str">
-        <v>150GR</v>
+        <v>270ML</v>
       </c>
       <c r="H140" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/400818.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/693052.jpg_x000d_</v>
       </c>
     </row>
     <row r="141">
@@ -4047,25 +4047,25 @@
         <v>92</v>
       </c>
       <c r="B141" t="str">
-        <v>CHOCOTELLA-MANTEQUILLA MANI-DULCE</v>
+        <v>EDULCORANTES</v>
       </c>
       <c r="C141" t="str">
-        <v>116270</v>
+        <v>5035958</v>
       </c>
       <c r="D141" t="str">
-        <v>789802439523</v>
+        <v>780955810194</v>
       </c>
       <c r="E141" t="str">
-        <v>NUTELLA</v>
+        <v>STEVIA LIQUIDA</v>
       </c>
       <c r="F141" t="str">
-        <v>FERRERO</v>
+        <v>DAILY</v>
       </c>
       <c r="G141" t="str">
-        <v>140GR</v>
+        <v>180ML</v>
       </c>
       <c r="H141" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/116270.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/5035958.jpg_x000d_</v>
       </c>
     </row>
     <row r="142">
@@ -4073,25 +4073,25 @@
         <v>92</v>
       </c>
       <c r="B142" t="str">
-        <v>CHOCOTELLA-MANTEQUILLA MANI-DULCE</v>
+        <v>EDULCORANTES</v>
       </c>
       <c r="C142" t="str">
-        <v>5079111</v>
+        <v>5035960</v>
       </c>
       <c r="D142" t="str">
-        <v>8017717</v>
+        <v>780955810266</v>
       </c>
       <c r="E142" t="str">
-        <v>NUTELLA 350</v>
+        <v>STEVIA LIQUIDA</v>
       </c>
       <c r="F142" t="str">
-        <v>FERRERO</v>
+        <v>DAILY</v>
       </c>
       <c r="G142" t="str">
-        <v>350GR</v>
+        <v>400ML</v>
       </c>
       <c r="H142" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/5079111.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/5035960.jpg_x000d_</v>
       </c>
     </row>
     <row r="143">
@@ -4099,25 +4099,25 @@
         <v>92</v>
       </c>
       <c r="B143" t="str">
-        <v>EDULCORANTES</v>
+        <v>ESPECIES</v>
       </c>
       <c r="C143" t="str">
-        <v>688804</v>
+        <v>5079113</v>
       </c>
       <c r="D143" t="str">
-        <v>780150500087</v>
+        <v>780241000044</v>
       </c>
       <c r="E143" t="str">
-        <v>STEVIA LIQUIDA</v>
+        <v>MOLI MIX PIMIENTA 43</v>
       </c>
       <c r="F143" t="str">
-        <v>IANSA</v>
+        <v>GOURMET</v>
       </c>
       <c r="G143" t="str">
-        <v>350ML</v>
+        <v>43GR</v>
       </c>
       <c r="H143" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/688804.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/5079113.jpg_x000d_</v>
       </c>
     </row>
     <row r="144">
@@ -4125,25 +4125,25 @@
         <v>92</v>
       </c>
       <c r="B144" t="str">
-        <v>EDULCORANTES</v>
+        <v>LECHE - CREMA</v>
       </c>
       <c r="C144" t="str">
-        <v>693052</v>
+        <v>242664</v>
       </c>
       <c r="D144" t="str">
-        <v>780955810172</v>
+        <v>780291000208</v>
       </c>
       <c r="E144" t="str">
-        <v>ENDULZANTE STEVIA</v>
+        <v>CREMA LONCOLECHE LIG</v>
       </c>
       <c r="F144" t="str">
-        <v>DAILY</v>
+        <v>LONCOLECHE</v>
       </c>
       <c r="G144" t="str">
-        <v>270ML</v>
+        <v>200GR</v>
       </c>
       <c r="H144" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/693052.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/242664.jpg_x000d_</v>
       </c>
     </row>
     <row r="145">
@@ -4151,25 +4151,25 @@
         <v>92</v>
       </c>
       <c r="B145" t="str">
-        <v>EDULCORANTES</v>
+        <v>LECHE - CREMA</v>
       </c>
       <c r="C145" t="str">
-        <v>5035960</v>
+        <v>546575</v>
       </c>
       <c r="D145" t="str">
-        <v>780955810266</v>
+        <v>780290010501</v>
       </c>
       <c r="E145" t="str">
-        <v>STEVIA LIQUIDA</v>
+        <v>CREMA ESPESA LARGA V</v>
       </c>
       <c r="F145" t="str">
-        <v>DAILY</v>
+        <v>SOPROLE</v>
       </c>
       <c r="G145" t="str">
-        <v>400ML</v>
+        <v>200CC</v>
       </c>
       <c r="H145" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/5035960.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/546575.jpg_x000d_</v>
       </c>
     </row>
     <row r="146">
@@ -4177,25 +4177,25 @@
         <v>92</v>
       </c>
       <c r="B146" t="str">
-        <v>EDULCORANTES</v>
+        <v>LECHE BLANCA</v>
       </c>
       <c r="C146" t="str">
-        <v>5035958</v>
+        <v>720074</v>
       </c>
       <c r="D146" t="str">
-        <v>780955810194</v>
+        <v>40000720074</v>
       </c>
       <c r="E146" t="str">
-        <v>STEVIA LIQUIDA</v>
+        <v>LECHE NATURAL ENTERA</v>
       </c>
       <c r="F146" t="str">
-        <v>DAILY</v>
+        <v>LIDER</v>
       </c>
       <c r="G146" t="str">
-        <v>180ML</v>
+        <v>1LT</v>
       </c>
       <c r="H146" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/5035958.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/720074.jpg_x000d_</v>
       </c>
     </row>
     <row r="147">
@@ -4203,25 +4203,25 @@
         <v>92</v>
       </c>
       <c r="B147" t="str">
-        <v>LECHE - CREMA</v>
+        <v>LECHE BLANCA</v>
       </c>
       <c r="C147" t="str">
-        <v>242664</v>
+        <v>5027041</v>
       </c>
       <c r="D147" t="str">
-        <v>780291000208</v>
+        <v>40005027041</v>
       </c>
       <c r="E147" t="str">
-        <v>CREMA LONCOLECHE LIG</v>
+        <v>LECHE SEMIDESCREM</v>
       </c>
       <c r="F147" t="str">
-        <v>LONCOLECHE</v>
+        <v>LIDER</v>
       </c>
       <c r="G147" t="str">
-        <v>200GR</v>
+        <v>1LT</v>
       </c>
       <c r="H147" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/242664.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/5027041.jpg_x000d_</v>
       </c>
     </row>
     <row r="148">
@@ -4229,16 +4229,16 @@
         <v>92</v>
       </c>
       <c r="B148" t="str">
-        <v>LECHE - CREMA</v>
+        <v>LECHE COLACION</v>
       </c>
       <c r="C148" t="str">
-        <v>546575</v>
+        <v>268833</v>
       </c>
       <c r="D148" t="str">
-        <v>780290010501</v>
+        <v>780290005607</v>
       </c>
       <c r="E148" t="str">
-        <v>CREMA ESPESA LARGA V</v>
+        <v>BOMBILLIN CHOCOLATE</v>
       </c>
       <c r="F148" t="str">
         <v>SOPROLE</v>
@@ -4247,7 +4247,7 @@
         <v>200CC</v>
       </c>
       <c r="H148" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/546575.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/268833.jpg_x000d_</v>
       </c>
     </row>
     <row r="149">
@@ -4255,25 +4255,25 @@
         <v>92</v>
       </c>
       <c r="B149" t="str">
-        <v>LECHE BLANCA</v>
+        <v>LECHE COLACION</v>
       </c>
       <c r="C149" t="str">
-        <v>263567</v>
+        <v>270027</v>
       </c>
       <c r="D149" t="str">
-        <v>780870950043</v>
+        <v>780292077721</v>
       </c>
       <c r="E149" t="str">
-        <v>LECHE ENTERA 31 UHT</v>
+        <v>LECHE LARGA VIDA CHO</v>
       </c>
       <c r="F149" t="str">
-        <v>LIDER</v>
+        <v>COLUN</v>
       </c>
       <c r="G149" t="str">
-        <v>1LT</v>
+        <v>200GR</v>
       </c>
       <c r="H149" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/263567.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/270027.jpg_x000d_</v>
       </c>
     </row>
     <row r="150">
@@ -4281,25 +4281,25 @@
         <v>92</v>
       </c>
       <c r="B150" t="str">
-        <v>LECHE BLANCA</v>
+        <v>LECHE EN POLVO</v>
       </c>
       <c r="C150" t="str">
-        <v>720074</v>
+        <v>460536</v>
       </c>
       <c r="D150" t="str">
-        <v>40000720074</v>
+        <v>761303433566</v>
       </c>
       <c r="E150" t="str">
-        <v>LECHE NATURAL ENTERA</v>
+        <v>LP DESC SIN LACT.</v>
       </c>
       <c r="F150" t="str">
-        <v>LIDER</v>
+        <v>SVELTY</v>
       </c>
       <c r="G150" t="str">
-        <v>1LT</v>
+        <v>800GR</v>
       </c>
       <c r="H150" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/720074.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/460536.jpg_x000d_</v>
       </c>
     </row>
     <row r="151">
@@ -4307,25 +4307,25 @@
         <v>92</v>
       </c>
       <c r="B151" t="str">
-        <v>LECHE BLANCA</v>
+        <v>LECHE EN POLVO</v>
       </c>
       <c r="C151" t="str">
-        <v>5027041</v>
+        <v>619903</v>
       </c>
       <c r="D151" t="str">
-        <v>40005027041</v>
+        <v>761303605745</v>
       </c>
       <c r="E151" t="str">
-        <v>LECHE SEMIDESCREM</v>
+        <v>NIDO DESC FORTIC 840</v>
       </c>
       <c r="F151" t="str">
-        <v>LIDER</v>
+        <v>NIDO</v>
       </c>
       <c r="G151" t="str">
-        <v>1LT</v>
+        <v>840GR</v>
       </c>
       <c r="H151" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/5027041.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/619903.jpg_x000d_</v>
       </c>
     </row>
     <row r="152">
@@ -4333,25 +4333,25 @@
         <v>92</v>
       </c>
       <c r="B152" t="str">
-        <v>LECHE COLACION</v>
+        <v>LECHE EN POLVO</v>
       </c>
       <c r="C152" t="str">
-        <v>268833</v>
+        <v>700811</v>
       </c>
       <c r="D152" t="str">
-        <v>780290005607</v>
+        <v>761303705741</v>
       </c>
       <c r="E152" t="str">
-        <v>BOMBILLIN CHOCOLATE</v>
+        <v>SVELTY COLAGENO</v>
       </c>
       <c r="F152" t="str">
-        <v>SOPROLE</v>
+        <v>SVELTY</v>
       </c>
       <c r="G152" t="str">
-        <v>200CC</v>
+        <v>500GR</v>
       </c>
       <c r="H152" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/268833.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/700811.jpg_x000d_</v>
       </c>
     </row>
     <row r="153">
@@ -4359,25 +4359,25 @@
         <v>92</v>
       </c>
       <c r="B153" t="str">
-        <v>LECHE COLACION</v>
+        <v>LECHE EN POLVO</v>
       </c>
       <c r="C153" t="str">
-        <v>270027</v>
+        <v>867430</v>
       </c>
       <c r="D153" t="str">
-        <v>780292077721</v>
+        <v>844529030507</v>
       </c>
       <c r="E153" t="str">
-        <v>LECHE LARGA VIDA CHO</v>
+        <v>NIDO BUEN DIA 900GR</v>
       </c>
       <c r="F153" t="str">
-        <v>COLUN</v>
+        <v>NIDO</v>
       </c>
       <c r="G153" t="str">
-        <v>200GR</v>
+        <v>900GR</v>
       </c>
       <c r="H153" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/270027.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/867430.jpg_x000d_</v>
       </c>
     </row>
     <row r="154">
@@ -4388,22 +4388,22 @@
         <v>LECHE EN POLVO</v>
       </c>
       <c r="C154" t="str">
-        <v>460536</v>
+        <v>867432</v>
       </c>
       <c r="D154" t="str">
-        <v>761303433566</v>
+        <v>844529026264</v>
       </c>
       <c r="E154" t="str">
-        <v>LP DESC SIN LACT.</v>
+        <v>NIDO LEP INST 800G</v>
       </c>
       <c r="F154" t="str">
-        <v>SVELTY</v>
+        <v>NIDO</v>
       </c>
       <c r="G154" t="str">
         <v>800GR</v>
       </c>
       <c r="H154" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/460536.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/867432.jpg_x000d_</v>
       </c>
     </row>
     <row r="155">
@@ -4414,22 +4414,22 @@
         <v>LECHE EN POLVO</v>
       </c>
       <c r="C155" t="str">
-        <v>5019262</v>
+        <v>5019260</v>
       </c>
       <c r="D155" t="str">
-        <v>844529073254</v>
+        <v>844529073103</v>
       </c>
       <c r="E155" t="str">
-        <v>NIDO 3+ LEP 700GR</v>
+        <v>NIDO 1+ LEP 1.9 KG</v>
       </c>
       <c r="F155" t="str">
         <v>NIDO</v>
       </c>
       <c r="G155" t="str">
-        <v>700GR</v>
+        <v>1900GR</v>
       </c>
       <c r="H155" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/5019262.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/5019260.jpg_x000d_</v>
       </c>
     </row>
     <row r="156">
@@ -4440,22 +4440,22 @@
         <v>LECHE EN POLVO</v>
       </c>
       <c r="C156" t="str">
-        <v>619903</v>
+        <v>5019261</v>
       </c>
       <c r="D156" t="str">
-        <v>761303605745</v>
+        <v>844529073251</v>
       </c>
       <c r="E156" t="str">
-        <v>NIDO DESC FORTIC 840</v>
+        <v>NIDO 1+ LEP 700GR</v>
       </c>
       <c r="F156" t="str">
         <v>NIDO</v>
       </c>
       <c r="G156" t="str">
-        <v>840GR</v>
+        <v>700GR</v>
       </c>
       <c r="H156" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/619903.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/5019261.jpg_x000d_</v>
       </c>
     </row>
     <row r="157">
@@ -4466,13 +4466,13 @@
         <v>LECHE EN POLVO</v>
       </c>
       <c r="C157" t="str">
-        <v>5019261</v>
+        <v>5019262</v>
       </c>
       <c r="D157" t="str">
-        <v>844529073251</v>
+        <v>844529073254</v>
       </c>
       <c r="E157" t="str">
-        <v>NIDO 1+ LEP 700GR</v>
+        <v>NIDO 3+ LEP 700GR</v>
       </c>
       <c r="F157" t="str">
         <v>NIDO</v>
@@ -4481,7 +4481,7 @@
         <v>700GR</v>
       </c>
       <c r="H157" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/5019261.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/5019262.jpg_x000d_</v>
       </c>
     </row>
     <row r="158">
@@ -4489,25 +4489,25 @@
         <v>92</v>
       </c>
       <c r="B158" t="str">
-        <v>LECHE EN POLVO</v>
+        <v>MANJAR</v>
       </c>
       <c r="C158" t="str">
-        <v>867432</v>
+        <v>271082</v>
       </c>
       <c r="D158" t="str">
-        <v>844529026264</v>
+        <v>780295000489</v>
       </c>
       <c r="E158" t="str">
-        <v>NIDO LEP INST 800G</v>
+        <v>MANJAR</v>
       </c>
       <c r="F158" t="str">
-        <v>NIDO</v>
+        <v>NESTLE</v>
       </c>
       <c r="G158" t="str">
-        <v>800GR</v>
+        <v>1KG</v>
       </c>
       <c r="H158" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/867432.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/271082.jpg_x000d_</v>
       </c>
     </row>
     <row r="159">
@@ -4515,25 +4515,25 @@
         <v>92</v>
       </c>
       <c r="B159" t="str">
-        <v>LECHE EN POLVO</v>
+        <v>MAYONESA</v>
       </c>
       <c r="C159" t="str">
-        <v>700811</v>
+        <v>875988</v>
       </c>
       <c r="D159" t="str">
-        <v>761303705741</v>
+        <v>2100002632</v>
       </c>
       <c r="E159" t="str">
-        <v>SVELTY COLAGENO</v>
+        <v>MAYO FR KRAFT 789</v>
       </c>
       <c r="F159" t="str">
-        <v>SVELTY</v>
+        <v>KRAFT</v>
       </c>
       <c r="G159" t="str">
-        <v>500GR</v>
+        <v>789GR</v>
       </c>
       <c r="H159" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/700811.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/875988.jpg_x000d_</v>
       </c>
     </row>
     <row r="160">
@@ -4541,25 +4541,25 @@
         <v>92</v>
       </c>
       <c r="B160" t="str">
-        <v>LECHE EN POLVO</v>
+        <v>MAYONESA</v>
       </c>
       <c r="C160" t="str">
-        <v>5019260</v>
+        <v>875989</v>
       </c>
       <c r="D160" t="str">
-        <v>844529073103</v>
+        <v>2100002696</v>
       </c>
       <c r="E160" t="str">
-        <v>NIDO 1+ LEP 1.9 KG</v>
+        <v>MAYO FR KRAFT 394</v>
       </c>
       <c r="F160" t="str">
-        <v>NIDO</v>
+        <v>KRAFT</v>
       </c>
       <c r="G160" t="str">
-        <v>1900GR</v>
+        <v>394GR</v>
       </c>
       <c r="H160" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/5019260.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/875989.jpg_x000d_</v>
       </c>
     </row>
     <row r="161">
@@ -4570,22 +4570,22 @@
         <v>MAYONESA</v>
       </c>
       <c r="C161" t="str">
-        <v>875994</v>
+        <v>875993</v>
       </c>
       <c r="D161" t="str">
-        <v>2100007023</v>
+        <v>2100007025</v>
       </c>
       <c r="E161" t="str">
-        <v>MAYO SQZ KRAFT 315</v>
+        <v>MAYO SQZ KRAFT 578</v>
       </c>
       <c r="F161" t="str">
         <v>KRAFT</v>
       </c>
       <c r="G161" t="str">
-        <v>315GR</v>
+        <v>578GR</v>
       </c>
       <c r="H161" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/875994.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/875993.jpg_x000d_</v>
       </c>
     </row>
     <row r="162">
@@ -4596,22 +4596,22 @@
         <v>MAYONESA</v>
       </c>
       <c r="C162" t="str">
-        <v>875993</v>
+        <v>875994</v>
       </c>
       <c r="D162" t="str">
-        <v>2100007025</v>
+        <v>2100007023</v>
       </c>
       <c r="E162" t="str">
-        <v>MAYO SQZ KRAFT 578</v>
+        <v>MAYO SQZ KRAFT 315</v>
       </c>
       <c r="F162" t="str">
         <v>KRAFT</v>
       </c>
       <c r="G162" t="str">
-        <v>578GR</v>
+        <v>315GR</v>
       </c>
       <c r="H162" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/875993.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/875994.jpg_x000d_</v>
       </c>
     </row>
     <row r="163">
@@ -4622,22 +4622,22 @@
         <v>MAYONESA</v>
       </c>
       <c r="C163" t="str">
-        <v>875988</v>
+        <v>875997</v>
       </c>
       <c r="D163" t="str">
-        <v>2100002632</v>
+        <v>2100008105</v>
       </c>
       <c r="E163" t="str">
-        <v>MAYO FR KRAFT 789</v>
+        <v>MAYO FR KRAFT 1262</v>
       </c>
       <c r="F163" t="str">
         <v>KRAFT</v>
       </c>
       <c r="G163" t="str">
-        <v>789GR</v>
+        <v>1262GR</v>
       </c>
       <c r="H163" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/875988.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/875997.jpg_x000d_</v>
       </c>
     </row>
     <row r="164">
@@ -4645,25 +4645,25 @@
         <v>92</v>
       </c>
       <c r="B164" t="str">
-        <v>MAYONESA</v>
+        <v>OLIVA</v>
       </c>
       <c r="C164" t="str">
-        <v>875989</v>
+        <v>279160</v>
       </c>
       <c r="D164" t="str">
-        <v>2100002696</v>
+        <v>780142000061</v>
       </c>
       <c r="E164" t="str">
-        <v>MAYO FR KRAFT 394</v>
+        <v>ACEITE OLIVA EX VIRG</v>
       </c>
       <c r="F164" t="str">
-        <v>KRAFT</v>
+        <v>BANQUETE</v>
       </c>
       <c r="G164" t="str">
-        <v>394GR</v>
+        <v>250ML</v>
       </c>
       <c r="H164" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/875989.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/279160.jpg_x000d_</v>
       </c>
     </row>
     <row r="165">
@@ -4671,25 +4671,25 @@
         <v>92</v>
       </c>
       <c r="B165" t="str">
-        <v>MAYONESA</v>
+        <v>OLIVA</v>
       </c>
       <c r="C165" t="str">
-        <v>875997</v>
+        <v>455151</v>
       </c>
       <c r="D165" t="str">
-        <v>2100008105</v>
+        <v>780281000879</v>
       </c>
       <c r="E165" t="str">
-        <v>MAYO FR KRAFT 1262</v>
+        <v>ACEITE OLIVA EX VIRG</v>
       </c>
       <c r="F165" t="str">
-        <v>KRAFT</v>
+        <v>CHEF</v>
       </c>
       <c r="G165" t="str">
-        <v>1262GR</v>
+        <v>1LT</v>
       </c>
       <c r="H165" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/875997.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/455151.jpg_x000d_</v>
       </c>
     </row>
     <row r="166">
@@ -4697,25 +4697,25 @@
         <v>92</v>
       </c>
       <c r="B166" t="str">
-        <v>OLIVA</v>
+        <v>REGALO - PREMIUM</v>
       </c>
       <c r="C166" t="str">
-        <v>279160</v>
+        <v>814218</v>
       </c>
       <c r="D166" t="str">
-        <v>780142000061</v>
+        <v>746676293901</v>
       </c>
       <c r="E166" t="str">
-        <v>ACEITE OLIVA EX VIRG</v>
+        <v>GALLETA PIRULIN</v>
       </c>
       <c r="F166" t="str">
-        <v>BANQUETE</v>
+        <v>PIRULIN</v>
       </c>
       <c r="G166" t="str">
-        <v>250ML</v>
+        <v>155GR</v>
       </c>
       <c r="H166" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/279160.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/814218.jpg_x000d_</v>
       </c>
     </row>
     <row r="167">
@@ -4723,25 +4723,25 @@
         <v>92</v>
       </c>
       <c r="B167" t="str">
-        <v>OLIVA</v>
+        <v>SABORIZANTES DE LECHE</v>
       </c>
       <c r="C167" t="str">
-        <v>455151</v>
+        <v>263927</v>
       </c>
       <c r="D167" t="str">
-        <v>780281000879</v>
+        <v>761303012058</v>
       </c>
       <c r="E167" t="str">
-        <v>ACEITE OLIVA EX VIRG</v>
+        <v>ALIMENTO FORTIFICADO</v>
       </c>
       <c r="F167" t="str">
-        <v>CHEF</v>
+        <v>MILO</v>
       </c>
       <c r="G167" t="str">
-        <v>1LT</v>
+        <v>1000GR</v>
       </c>
       <c r="H167" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/455151.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/263927.jpg_x000d_</v>
       </c>
     </row>
     <row r="168">
@@ -4752,22 +4752,22 @@
         <v>SABORIZANTES DE LECHE</v>
       </c>
       <c r="C168" t="str">
-        <v>263927</v>
+        <v>5020654</v>
       </c>
       <c r="D168" t="str">
-        <v>761303012058</v>
+        <v>844529084157</v>
       </c>
       <c r="E168" t="str">
-        <v>ALIMENTO FORTIFICADO</v>
+        <v>MILO ACTIVE GO</v>
       </c>
       <c r="F168" t="str">
         <v>MILO</v>
       </c>
       <c r="G168" t="str">
-        <v>1000GR</v>
+        <v>450GR</v>
       </c>
       <c r="H168" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/263927.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/5020654.jpg_x000d_</v>
       </c>
     </row>
     <row r="169">
@@ -4775,25 +4775,25 @@
         <v>92</v>
       </c>
       <c r="B169" t="str">
-        <v>SABORIZANTES DE LECHE</v>
+        <v>SALSA TOMATE</v>
       </c>
       <c r="C169" t="str">
-        <v>5020654</v>
+        <v>311058</v>
       </c>
       <c r="D169" t="str">
-        <v>844529084157</v>
+        <v>780257535517</v>
       </c>
       <c r="E169" t="str">
-        <v>MILO ACTIVE GO</v>
+        <v>PACK SALSA TOM ITALI</v>
       </c>
       <c r="F169" t="str">
-        <v>MILO</v>
+        <v>POMAROLA</v>
       </c>
       <c r="G169" t="str">
-        <v>450GR</v>
+        <v>1200GR</v>
       </c>
       <c r="H169" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/5020654.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/311058.jpg_x000d_</v>
       </c>
     </row>
     <row r="170">
@@ -4804,13 +4804,13 @@
         <v>COLAS</v>
       </c>
       <c r="C170" t="str">
-        <v>248305</v>
+        <v>248297</v>
       </c>
       <c r="D170" t="str">
-        <v>780161035085</v>
+        <v>780161000152</v>
       </c>
       <c r="E170" t="str">
-        <v>GAS COLA DES ZERO</v>
+        <v>GAS COLA DES</v>
       </c>
       <c r="F170" t="str">
         <v>COCA COLA</v>
@@ -4819,7 +4819,7 @@
         <v>2500CC</v>
       </c>
       <c r="H170" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/248305.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/248297.jpg_x000d_</v>
       </c>
     </row>
     <row r="171">
@@ -4830,13 +4830,13 @@
         <v>COLAS</v>
       </c>
       <c r="C171" t="str">
-        <v>248297</v>
+        <v>248305</v>
       </c>
       <c r="D171" t="str">
-        <v>780161000152</v>
+        <v>780161035085</v>
       </c>
       <c r="E171" t="str">
-        <v>GAS COLA DES</v>
+        <v>GAS COLA DES ZERO</v>
       </c>
       <c r="F171" t="str">
         <v>COCA COLA</v>
@@ -4845,7 +4845,7 @@
         <v>2500CC</v>
       </c>
       <c r="H171" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/248297.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/248305.jpg_x000d_</v>
       </c>
     </row>
     <row r="172">
@@ -4856,10 +4856,10 @@
         <v>ENERGETICAS</v>
       </c>
       <c r="C172" t="str">
-        <v>454151</v>
+        <v>277904</v>
       </c>
       <c r="D172" t="str">
-        <v>900249022101</v>
+        <v>900249010007</v>
       </c>
       <c r="E172" t="str">
         <v>BEBIDA ENERGIZANTE</v>
@@ -4868,10 +4868,10 @@
         <v>RED BULL</v>
       </c>
       <c r="G172" t="str">
-        <v>355CC</v>
+        <v>250CC</v>
       </c>
       <c r="H172" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/454151.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/277904.jpg_x000d_</v>
       </c>
     </row>
     <row r="173">
@@ -4897,7 +4897,7 @@
         <v>473CC</v>
       </c>
       <c r="H173" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/432151.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/432151.jpg_x000d_</v>
       </c>
     </row>
     <row r="174">
@@ -4908,10 +4908,10 @@
         <v>ENERGETICAS</v>
       </c>
       <c r="C174" t="str">
-        <v>277904</v>
+        <v>454151</v>
       </c>
       <c r="D174" t="str">
-        <v>900249010007</v>
+        <v>900249022101</v>
       </c>
       <c r="E174" t="str">
         <v>BEBIDA ENERGIZANTE</v>
@@ -4920,10 +4920,10 @@
         <v>RED BULL</v>
       </c>
       <c r="G174" t="str">
-        <v>250CC</v>
+        <v>355CC</v>
       </c>
       <c r="H174" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/277904.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/454151.jpg_x000d_</v>
       </c>
     </row>
     <row r="175">
@@ -4949,7 +4949,7 @@
         <v>470CC</v>
       </c>
       <c r="H175" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/663177.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/663177.jpg_x000d_</v>
       </c>
     </row>
     <row r="176">
@@ -4960,22 +4960,22 @@
         <v>ARTESANALES</v>
       </c>
       <c r="C176" t="str">
-        <v>471813</v>
+        <v>266682</v>
       </c>
       <c r="D176" t="str">
-        <v>780210700030</v>
+        <v>780963410007</v>
       </c>
       <c r="E176" t="str">
-        <v>CERVEZA TORO 6U 5G</v>
+        <v>CERVEZA CALAF 4UN 5G</v>
       </c>
       <c r="F176" t="str">
-        <v>KUNSTMANN</v>
+        <v>AUSTRAL</v>
       </c>
       <c r="G176" t="str">
-        <v>6UN</v>
+        <v>4UN</v>
       </c>
       <c r="H176" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/471813.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/266682.jpg_x000d_</v>
       </c>
     </row>
     <row r="177">
@@ -4983,25 +4983,25 @@
         <v>96</v>
       </c>
       <c r="B177" t="str">
-        <v>LICORES - CREMA</v>
+        <v>ARTESANALES</v>
       </c>
       <c r="C177" t="str">
-        <v>386242</v>
+        <v>471813</v>
       </c>
       <c r="D177" t="str">
-        <v>501101310013</v>
+        <v>780210700030</v>
       </c>
       <c r="E177" t="str">
-        <v>LIC CREM WHI 17G BOT</v>
+        <v>CERVEZA TORO 6U 5G</v>
       </c>
       <c r="F177" t="str">
-        <v>BAILEYS</v>
+        <v>KUNSTMANN</v>
       </c>
       <c r="G177" t="str">
-        <v>750CC</v>
+        <v>6UN</v>
       </c>
       <c r="H177" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/386242.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/471813.jpg_x000d_</v>
       </c>
     </row>
     <row r="178">
@@ -5009,25 +5009,25 @@
         <v>96</v>
       </c>
       <c r="B178" t="str">
-        <v>ARTESANALES</v>
+        <v>CERVEZA PREMIUM</v>
       </c>
       <c r="C178" t="str">
-        <v>266682</v>
+        <v>506095</v>
       </c>
       <c r="D178" t="str">
-        <v>780963410007</v>
+        <v>750104993694</v>
       </c>
       <c r="E178" t="str">
-        <v>CERVEZA CALAF 4UN 5G</v>
+        <v>CERVEZA SOL 6UN 4.5G</v>
       </c>
       <c r="F178" t="str">
-        <v>AUSTRAL</v>
+        <v>SOL</v>
       </c>
       <c r="G178" t="str">
-        <v>4UN</v>
+        <v>6UN</v>
       </c>
       <c r="H178" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/266682.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/506095.jpg_x000d_</v>
       </c>
     </row>
     <row r="179">
@@ -5035,25 +5035,25 @@
         <v>96</v>
       </c>
       <c r="B179" t="str">
-        <v>PISCOS</v>
+        <v>CERVEZA PREMIUM</v>
       </c>
       <c r="C179" t="str">
-        <v>381266</v>
+        <v>534642</v>
       </c>
       <c r="D179" t="str">
-        <v>780211000195</v>
+        <v>780210000039</v>
       </c>
       <c r="E179" t="str">
-        <v>PISCO BOTELLON 35G</v>
+        <v>CERVEZA LATA 12U 5G</v>
       </c>
       <c r="F179" t="str">
-        <v>ALTO DEL CARMEN</v>
+        <v>HEINEKEN</v>
       </c>
       <c r="G179" t="str">
-        <v>1000CC</v>
+        <v>12UN</v>
       </c>
       <c r="H179" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/381266.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/534642.jpg_x000d_</v>
       </c>
     </row>
     <row r="180">
@@ -5061,25 +5061,25 @@
         <v>96</v>
       </c>
       <c r="B180" t="str">
-        <v>VINOS PREMIUM</v>
+        <v>CERVEZA PREMIUM</v>
       </c>
       <c r="C180" t="str">
-        <v>363796</v>
+        <v>746950</v>
       </c>
       <c r="D180" t="str">
-        <v>780434000000</v>
+        <v>780213000227</v>
       </c>
       <c r="E180" t="str">
-        <v>VINO CS BOT 13.6G</v>
+        <v>6 CERVEZA BOT 4.5G</v>
       </c>
       <c r="F180" t="str">
-        <v>TARAPACA</v>
+        <v>CORONA</v>
       </c>
       <c r="G180" t="str">
-        <v>750CC</v>
+        <v>6UN</v>
       </c>
       <c r="H180" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/363796.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/746950.jpg_x000d_</v>
       </c>
     </row>
     <row r="181">
@@ -5090,22 +5090,22 @@
         <v>CERVEZA PREMIUM</v>
       </c>
       <c r="C181" t="str">
-        <v>506095</v>
+        <v>747154</v>
       </c>
       <c r="D181" t="str">
-        <v>750104993694</v>
+        <v>780213000224</v>
       </c>
       <c r="E181" t="str">
-        <v>CERVEZA SOL 6UN 4.5G</v>
+        <v>18CERV 5G 355CC.</v>
       </c>
       <c r="F181" t="str">
-        <v>SOL</v>
+        <v>BUDWEISER</v>
       </c>
       <c r="G181" t="str">
-        <v>6UN</v>
+        <v>18UN</v>
       </c>
       <c r="H181" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/506095.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/747154.jpg_x000d_</v>
       </c>
     </row>
     <row r="182">
@@ -5131,7 +5131,7 @@
         <v>6UN</v>
       </c>
       <c r="H182" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/747847.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/747847.jpg_x000d_</v>
       </c>
     </row>
     <row r="183">
@@ -5157,7 +5157,7 @@
         <v>4UN</v>
       </c>
       <c r="H183" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/5043639.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/5043639.jpg_x000d_</v>
       </c>
     </row>
     <row r="184">
@@ -5165,25 +5165,25 @@
         <v>96</v>
       </c>
       <c r="B184" t="str">
-        <v>CERVEZA PREMIUM</v>
+        <v>LICORES - CREMA</v>
       </c>
       <c r="C184" t="str">
-        <v>746950</v>
+        <v>386242</v>
       </c>
       <c r="D184" t="str">
-        <v>780213000227</v>
+        <v>501101310013</v>
       </c>
       <c r="E184" t="str">
-        <v>6 CERVEZA BOT 4.5G</v>
+        <v>LIC CREM WHI 17G BOT</v>
       </c>
       <c r="F184" t="str">
-        <v>CORONA</v>
+        <v>BAILEYS</v>
       </c>
       <c r="G184" t="str">
-        <v>6UN</v>
+        <v>750CC</v>
       </c>
       <c r="H184" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/746950.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/386242.jpg_x000d_</v>
       </c>
     </row>
     <row r="185">
@@ -5191,25 +5191,25 @@
         <v>96</v>
       </c>
       <c r="B185" t="str">
-        <v>CERVEZA PREMIUM</v>
+        <v>LICORES - ESPECIALES</v>
       </c>
       <c r="C185" t="str">
-        <v>747154</v>
+        <v>625417</v>
       </c>
       <c r="D185" t="str">
-        <v>780213000224</v>
+        <v>800655034023</v>
       </c>
       <c r="E185" t="str">
-        <v>18CERV 5G 355CC.</v>
+        <v>LIC APERITIV 15G BOT</v>
       </c>
       <c r="F185" t="str">
-        <v>BUDWEISER</v>
+        <v>RAMAZZOTTI</v>
       </c>
       <c r="G185" t="str">
-        <v>18UN</v>
+        <v>700CC</v>
       </c>
       <c r="H185" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/747154.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/625417.jpg_x000d_</v>
       </c>
     </row>
     <row r="186">
@@ -5217,25 +5217,25 @@
         <v>96</v>
       </c>
       <c r="B186" t="str">
-        <v>CERVEZA PREMIUM</v>
+        <v>LICORES - ESPECIALES</v>
       </c>
       <c r="C186" t="str">
-        <v>534642</v>
+        <v>820197</v>
       </c>
       <c r="D186" t="str">
-        <v>780210000039</v>
+        <v>406770001824</v>
       </c>
       <c r="E186" t="str">
-        <v>CERVEZA LATA 12U 5G</v>
+        <v>LICOR HIERBAS 35G</v>
       </c>
       <c r="F186" t="str">
-        <v>HEINEKEN</v>
+        <v>JAGERMEISTER</v>
       </c>
       <c r="G186" t="str">
-        <v>12UN</v>
+        <v>700CC</v>
       </c>
       <c r="H186" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/534642.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/820197.jpg_x000d_</v>
       </c>
     </row>
     <row r="187">
@@ -5243,25 +5243,25 @@
         <v>96</v>
       </c>
       <c r="B187" t="str">
-        <v>LICORES - ESPECIALES</v>
+        <v>PISCOS</v>
       </c>
       <c r="C187" t="str">
-        <v>625417</v>
+        <v>381266</v>
       </c>
       <c r="D187" t="str">
-        <v>800655000000</v>
+        <v>780211000195</v>
       </c>
       <c r="E187" t="str">
-        <v>LIC APERITIV 15G BOT</v>
+        <v>PISCO BOTELLON 35G</v>
       </c>
       <c r="F187" t="str">
-        <v>RAMAZZOTTI</v>
+        <v>ALTO DEL CARMEN</v>
       </c>
       <c r="G187" t="str">
-        <v>700CC</v>
+        <v>1000CC</v>
       </c>
       <c r="H187" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/625417.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/381266.jpg_x000d_</v>
       </c>
     </row>
     <row r="188">
@@ -5269,25 +5269,25 @@
         <v>96</v>
       </c>
       <c r="B188" t="str">
-        <v>LICORES - ESPECIALES</v>
+        <v>REGULARES</v>
       </c>
       <c r="C188" t="str">
-        <v>820197</v>
+        <v>123236</v>
       </c>
       <c r="D188" t="str">
-        <v>406770001824</v>
+        <v>780210000157</v>
       </c>
       <c r="E188" t="str">
-        <v>LICOR HIERBAS 35G</v>
+        <v>CERVEZA MANGO6U 2.5G</v>
       </c>
       <c r="F188" t="str">
-        <v>JAGERMEISTER</v>
+        <v>STONES</v>
       </c>
       <c r="G188" t="str">
-        <v>700CC</v>
+        <v>6UN</v>
       </c>
       <c r="H188" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/820197.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/123236.jpg_x000d_</v>
       </c>
     </row>
     <row r="189">
@@ -5313,7 +5313,7 @@
         <v>6UN</v>
       </c>
       <c r="H189" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/311854.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/311854.jpg_x000d_</v>
       </c>
     </row>
     <row r="190">
@@ -5324,22 +5324,22 @@
         <v>REGULARES</v>
       </c>
       <c r="C190" t="str">
-        <v>123236</v>
+        <v>350839</v>
       </c>
       <c r="D190" t="str">
-        <v>780210000157</v>
+        <v>780210050156</v>
       </c>
       <c r="E190" t="str">
-        <v>CERVEZA MANGO6U 2.5G</v>
+        <v>CERVEZA ESC 12U 5.5G</v>
       </c>
       <c r="F190" t="str">
-        <v>STONES</v>
+        <v>ESCUDO</v>
       </c>
       <c r="G190" t="str">
-        <v>6UN</v>
+        <v>12UN</v>
       </c>
       <c r="H190" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/123236.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/350839.jpg_x000d_</v>
       </c>
     </row>
     <row r="191">
@@ -5365,7 +5365,7 @@
         <v>6UN</v>
       </c>
       <c r="H191" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/376329.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/376329.jpg_x000d_</v>
       </c>
     </row>
     <row r="192">
@@ -5376,22 +5376,22 @@
         <v>REGULARES</v>
       </c>
       <c r="C192" t="str">
-        <v>350839</v>
+        <v>612425</v>
       </c>
       <c r="D192" t="str">
-        <v>780210050156</v>
+        <v>780210000253</v>
       </c>
       <c r="E192" t="str">
-        <v>CERVEZA ESC 12U 5.5G</v>
+        <v>CERVEZA MARAC6U 2.5G</v>
       </c>
       <c r="F192" t="str">
-        <v>ESCUDO</v>
+        <v>STONES</v>
       </c>
       <c r="G192" t="str">
-        <v>12UN</v>
+        <v>6UN</v>
       </c>
       <c r="H192" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/350839.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/612425.jpg_x000d_</v>
       </c>
     </row>
     <row r="193">
@@ -5399,25 +5399,25 @@
         <v>96</v>
       </c>
       <c r="B193" t="str">
-        <v>REGULARES</v>
+        <v>VINOS PREMIUM</v>
       </c>
       <c r="C193" t="str">
-        <v>612425</v>
+        <v>363796</v>
       </c>
       <c r="D193" t="str">
-        <v>780210000253</v>
+        <v>780434090931</v>
       </c>
       <c r="E193" t="str">
-        <v>CERVEZA MARAC6U 2.5G</v>
+        <v>VINO CS BOT 13.6G</v>
       </c>
       <c r="F193" t="str">
-        <v>STONES</v>
+        <v>TARAPACA</v>
       </c>
       <c r="G193" t="str">
-        <v>6UN</v>
+        <v>750CC</v>
       </c>
       <c r="H193" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/612425.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/363796.jpg_x000d_</v>
       </c>
     </row>
     <row r="194">
@@ -5428,22 +5428,22 @@
         <v>WHISKY</v>
       </c>
       <c r="C194" t="str">
-        <v>5073426</v>
+        <v>477162</v>
       </c>
       <c r="D194" t="str">
-        <v>8218400437</v>
+        <v>500026711641</v>
       </c>
       <c r="E194" t="str">
-        <v>COCTEL WHISKEY APPLE</v>
+        <v>WHI DOUBLE B BOT 40G</v>
       </c>
       <c r="F194" t="str">
-        <v>JACK DANIELS</v>
+        <v>JOHNNIE WALKER</v>
       </c>
       <c r="G194" t="str">
         <v>750CC</v>
       </c>
       <c r="H194" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/5073426.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/477162.jpg_x000d_</v>
       </c>
     </row>
     <row r="195">
@@ -5454,22 +5454,22 @@
         <v>WHISKY</v>
       </c>
       <c r="C195" t="str">
-        <v>5057452</v>
+        <v>479055</v>
       </c>
       <c r="D195" t="str">
-        <v>500026719055</v>
+        <v>8218400033</v>
       </c>
       <c r="E195" t="str">
-        <v>JW BLONDE 40G</v>
+        <v>LICOR DE WHISKEYMIEL</v>
       </c>
       <c r="F195" t="str">
-        <v>JOHNNIE WALKER</v>
+        <v>JACK DANIELS</v>
       </c>
       <c r="G195" t="str">
         <v>750CC</v>
       </c>
       <c r="H195" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/5057452.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/479055.jpg_x000d_</v>
       </c>
     </row>
     <row r="196">
@@ -5480,22 +5480,22 @@
         <v>WHISKY</v>
       </c>
       <c r="C196" t="str">
-        <v>479055</v>
+        <v>5057452</v>
       </c>
       <c r="D196" t="str">
-        <v>8218400033</v>
+        <v>500026719055</v>
       </c>
       <c r="E196" t="str">
-        <v>LICOR DE WHISKEYMIEL</v>
+        <v>JW BLONDE 40G</v>
       </c>
       <c r="F196" t="str">
-        <v>JACK DANIELS</v>
+        <v>JOHNNIE WALKER</v>
       </c>
       <c r="G196" t="str">
         <v>750CC</v>
       </c>
       <c r="H196" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/479055.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/5057452.jpg_x000d_</v>
       </c>
     </row>
     <row r="197">
@@ -5506,13 +5506,13 @@
         <v>WHISKY</v>
       </c>
       <c r="C197" t="str">
-        <v>477162</v>
+        <v>5057453</v>
       </c>
       <c r="D197" t="str">
-        <v>500026711641</v>
+        <v>500026702401</v>
       </c>
       <c r="E197" t="str">
-        <v>WHI DOUBLE B BOT 40G</v>
+        <v>WHI 40G BLACK LABEL</v>
       </c>
       <c r="F197" t="str">
         <v>JOHNNIE WALKER</v>
@@ -5521,7 +5521,7 @@
         <v>750CC</v>
       </c>
       <c r="H197" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/477162.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/5057453.jpg_x000d_</v>
       </c>
     </row>
     <row r="198">
@@ -5532,22 +5532,22 @@
         <v>WHISKY</v>
       </c>
       <c r="C198" t="str">
-        <v>5057453</v>
+        <v>5073426</v>
       </c>
       <c r="D198" t="str">
-        <v>500026702401</v>
+        <v>8218400437</v>
       </c>
       <c r="E198" t="str">
-        <v>WHI 40G BLACK LABEL</v>
+        <v>COCTEL WHISKEY APPLE</v>
       </c>
       <c r="F198" t="str">
-        <v>JOHNNIE WALKER</v>
+        <v>JACK DANIELS</v>
       </c>
       <c r="G198" t="str">
         <v>750CC</v>
       </c>
       <c r="H198" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/5057453.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/5073426.jpg_x000d_</v>
       </c>
     </row>
     <row r="199">
@@ -5555,25 +5555,25 @@
         <v>97</v>
       </c>
       <c r="B199" t="str">
-        <v>QUESO CHACRA</v>
+        <v>CECINAS AUTOSERVICIO - CECINA MADURADA</v>
       </c>
       <c r="C199" t="str">
-        <v>682899</v>
+        <v>103719</v>
       </c>
       <c r="D199" t="str">
-        <v>780293000471</v>
+        <v>780191603976</v>
       </c>
       <c r="E199" t="str">
-        <v>QUESO CHACRA</v>
+        <v>SNACKIN LP</v>
       </c>
       <c r="F199" t="str">
-        <v>QUILLAYES</v>
+        <v>LA PREFERIDA</v>
       </c>
       <c r="G199" t="str">
-        <v>400GR</v>
+        <v>50GR</v>
       </c>
       <c r="H199" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/682899.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/103719.jpg_x000d_</v>
       </c>
     </row>
     <row r="200">
@@ -5581,25 +5581,25 @@
         <v>97</v>
       </c>
       <c r="B200" t="str">
-        <v>CECINAS AUTOSERVICIO - PATE</v>
+        <v>CECINAS AUTOSERVICIO - CECINA MADURADA</v>
       </c>
       <c r="C200" t="str">
-        <v>765429</v>
+        <v>685357</v>
       </c>
       <c r="D200" t="str">
-        <v>780197002643</v>
+        <v>40000685357</v>
       </c>
       <c r="E200" t="str">
-        <v>PATE TEEWURST</v>
+        <v>JAMON SERRANO</v>
       </c>
       <c r="F200" t="str">
-        <v>LLANQUIHUE</v>
+        <v>SELECCION</v>
       </c>
       <c r="G200" t="str">
-        <v>125GR</v>
+        <v>65GR</v>
       </c>
       <c r="H200" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/765429.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/685357.jpg_x000d_</v>
       </c>
     </row>
     <row r="201">
@@ -5607,25 +5607,25 @@
         <v>97</v>
       </c>
       <c r="B201" t="str">
-        <v>CECINAS AUTOSERVICIO - ESPECIALIDADES</v>
+        <v>CECINAS AUTOSERVICIO - CECINA MADURADA</v>
       </c>
       <c r="C201" t="str">
-        <v>5042566</v>
+        <v>756779</v>
       </c>
       <c r="D201" t="str">
-        <v>780197000176</v>
+        <v>780193002121</v>
       </c>
       <c r="E201" t="str">
-        <v>TOCINO AHUMADO</v>
+        <v>MINI SALAMINI RDA</v>
       </c>
       <c r="F201" t="str">
-        <v>LLANQUIHUE</v>
+        <v>RECETA DEL ABUELO</v>
       </c>
       <c r="G201" t="str">
-        <v>150GR</v>
+        <v>60GR</v>
       </c>
       <c r="H201" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/5042566.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/756779.jpg_x000d_</v>
       </c>
     </row>
     <row r="202">
@@ -5633,25 +5633,25 @@
         <v>97</v>
       </c>
       <c r="B202" t="str">
-        <v>LONGANICILLA</v>
+        <v>CECINAS AUTOSERVICIO - ESPECIALIDADES</v>
       </c>
       <c r="C202" t="str">
-        <v>413176</v>
+        <v>5042566</v>
       </c>
       <c r="D202" t="str">
-        <v>780464298019</v>
+        <v>780197000176</v>
       </c>
       <c r="E202" t="str">
-        <v>LONGANIZA 500 GRS</v>
+        <v>TOCINO AHUMADO</v>
       </c>
       <c r="F202" t="str">
-        <v>SCHWENCKE</v>
+        <v>LLANQUIHUE</v>
       </c>
       <c r="G202" t="str">
-        <v>500GR</v>
+        <v>150GR</v>
       </c>
       <c r="H202" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/413176.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/5042566.jpg_x000d_</v>
       </c>
     </row>
     <row r="203">
@@ -5659,25 +5659,25 @@
         <v>97</v>
       </c>
       <c r="B203" t="str">
-        <v>CECINAS AUTOSERVICIO - CECINA MADURADA</v>
+        <v>CECINAS AUTOSERVICIO - JAMON CERDO</v>
       </c>
       <c r="C203" t="str">
-        <v>103719</v>
+        <v>240569</v>
       </c>
       <c r="D203" t="str">
-        <v>780191603976</v>
+        <v>780191600201</v>
       </c>
       <c r="E203" t="str">
-        <v>SNACKIN LP</v>
+        <v>JAMON.DE PIERNA AL</v>
       </c>
       <c r="F203" t="str">
         <v>LA PREFERIDA</v>
       </c>
       <c r="G203" t="str">
-        <v>50GR</v>
+        <v>200GR</v>
       </c>
       <c r="H203" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/103719.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/240569.jpg_x000d_</v>
       </c>
     </row>
     <row r="204">
@@ -5685,25 +5685,25 @@
         <v>97</v>
       </c>
       <c r="B204" t="str">
-        <v>CECINAS AUTOSERVICIO - CECINA MADURADA</v>
+        <v>CECINAS AUTOSERVICIO - JAMON CERDO</v>
       </c>
       <c r="C204" t="str">
-        <v>756779</v>
+        <v>696265</v>
       </c>
       <c r="D204" t="str">
-        <v>780193002121</v>
+        <v>780193001827</v>
       </c>
       <c r="E204" t="str">
-        <v>MINI SALAMINI RDA</v>
+        <v>JAMON PIERNA ART</v>
       </c>
       <c r="F204" t="str">
         <v>RECETA DEL ABUELO</v>
       </c>
       <c r="G204" t="str">
-        <v>60GR</v>
+        <v>200GR</v>
       </c>
       <c r="H204" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/756779.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/696265.jpg_x000d_</v>
       </c>
     </row>
     <row r="205">
@@ -5711,25 +5711,25 @@
         <v>97</v>
       </c>
       <c r="B205" t="str">
-        <v>CECINAS AUTOSERVICIO - CECINA MADURADA</v>
+        <v>CECINAS AUTOSERVICIO - JAMON CERDO</v>
       </c>
       <c r="C205" t="str">
-        <v>685357</v>
+        <v>5042007</v>
       </c>
       <c r="D205" t="str">
-        <v>40000685357</v>
+        <v>780197000172</v>
       </c>
       <c r="E205" t="str">
-        <v>JAMON SERRANO</v>
+        <v>JAMON PIERNA</v>
       </c>
       <c r="F205" t="str">
-        <v>SELECCION</v>
+        <v>LLANQUIHUE</v>
       </c>
       <c r="G205" t="str">
-        <v>65GR</v>
+        <v>150GR</v>
       </c>
       <c r="H205" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/685357.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/5042007.jpg_x000d_</v>
       </c>
     </row>
     <row r="206">
@@ -5737,25 +5737,25 @@
         <v>97</v>
       </c>
       <c r="B206" t="str">
-        <v>CECINAS AUTOSERVICIO - JAMON CERDO</v>
+        <v>CECINAS AUTOSERVICIO - PATE</v>
       </c>
       <c r="C206" t="str">
-        <v>5042007</v>
+        <v>765429</v>
       </c>
       <c r="D206" t="str">
-        <v>780197000172</v>
+        <v>780197002643</v>
       </c>
       <c r="E206" t="str">
-        <v>JAMON PIERNA</v>
+        <v>PATE TEEWURST</v>
       </c>
       <c r="F206" t="str">
         <v>LLANQUIHUE</v>
       </c>
       <c r="G206" t="str">
-        <v>150GR</v>
+        <v>125GR</v>
       </c>
       <c r="H206" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/5042007.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/765429.jpg_x000d_</v>
       </c>
     </row>
     <row r="207">
@@ -5763,25 +5763,25 @@
         <v>97</v>
       </c>
       <c r="B207" t="str">
-        <v>CECINAS AUTOSERVICIO - JAMON CERDO</v>
+        <v>CERDO</v>
       </c>
       <c r="C207" t="str">
-        <v>240569</v>
+        <v>258166</v>
       </c>
       <c r="D207" t="str">
-        <v>780191600201</v>
+        <v>780197000478</v>
       </c>
       <c r="E207" t="str">
-        <v>JAMON.DE PIERNA AL</v>
+        <v>SALCHICHAS 500 GRS</v>
       </c>
       <c r="F207" t="str">
-        <v>LA PREFERIDA</v>
+        <v>LLANQUIHUE</v>
       </c>
       <c r="G207" t="str">
-        <v>200GR</v>
+        <v>500GR</v>
       </c>
       <c r="H207" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/240569.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/258166.jpg_x000d_</v>
       </c>
     </row>
     <row r="208">
@@ -5789,25 +5789,25 @@
         <v>97</v>
       </c>
       <c r="B208" t="str">
-        <v>CECINAS AUTOSERVICIO - JAMON CERDO</v>
+        <v>LONGANICILLA</v>
       </c>
       <c r="C208" t="str">
-        <v>696265</v>
+        <v>413176</v>
       </c>
       <c r="D208" t="str">
-        <v>780193000000</v>
+        <v>780464298019</v>
       </c>
       <c r="E208" t="str">
-        <v>JAMON PIERNA ART</v>
+        <v>LONGANIZA 500 GRS</v>
       </c>
       <c r="F208" t="str">
-        <v>RECETA DEL ABUELO</v>
+        <v>SCHWENCKE</v>
       </c>
       <c r="G208" t="str">
-        <v>200GR</v>
+        <v>500GR</v>
       </c>
       <c r="H208" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/696265.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/413176.jpg_x000d_</v>
       </c>
     </row>
     <row r="209">
@@ -5815,25 +5815,25 @@
         <v>97</v>
       </c>
       <c r="B209" t="str">
-        <v>CERDO</v>
+        <v>QUESO CHACRA</v>
       </c>
       <c r="C209" t="str">
-        <v>258166</v>
+        <v>682899</v>
       </c>
       <c r="D209" t="str">
-        <v>780197000478</v>
+        <v>780293000471</v>
       </c>
       <c r="E209" t="str">
-        <v>SALCHICHAS 500 GRS</v>
+        <v>QUESO CHACRA</v>
       </c>
       <c r="F209" t="str">
-        <v>LLANQUIHUE</v>
+        <v>QUILLAYES</v>
       </c>
       <c r="G209" t="str">
-        <v>500GR</v>
+        <v>400GR</v>
       </c>
       <c r="H209" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/258166.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/682899.jpg_x000d_</v>
       </c>
     </row>
     <row r="210">
@@ -5844,22 +5844,22 @@
         <v>QUESOS AUTOSERVICIO - QUESO BLANDO</v>
       </c>
       <c r="C210" t="str">
-        <v>313726</v>
+        <v>275617</v>
       </c>
       <c r="D210" t="str">
-        <v>780790000157</v>
+        <v>780293000051</v>
       </c>
       <c r="E210" t="str">
-        <v>QUESO CREMA LIVIANO</v>
+        <v>QUESO CAMEMBERT 100G</v>
       </c>
       <c r="F210" t="str">
-        <v>LIDER</v>
+        <v>QUILLAYES</v>
       </c>
       <c r="G210" t="str">
-        <v>226GR</v>
+        <v>100GR</v>
       </c>
       <c r="H210" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/313726.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/275617.jpg_x000d_</v>
       </c>
     </row>
     <row r="211">
@@ -5870,22 +5870,22 @@
         <v>QUESOS AUTOSERVICIO - QUESO BLANDO</v>
       </c>
       <c r="C211" t="str">
-        <v>413152</v>
+        <v>313725</v>
       </c>
       <c r="D211" t="str">
-        <v>780208000032</v>
+        <v>780790000156</v>
       </c>
       <c r="E211" t="str">
-        <v>QUESO CAMEMBERT PREM</v>
+        <v>QUESO CREMA REG</v>
       </c>
       <c r="F211" t="str">
-        <v>LOS TILOS</v>
+        <v>LIDER</v>
       </c>
       <c r="G211" t="str">
-        <v>100GR</v>
+        <v>226GR</v>
       </c>
       <c r="H211" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/413152.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/313725.jpg_x000d_</v>
       </c>
     </row>
     <row r="212">
@@ -5896,22 +5896,22 @@
         <v>QUESOS AUTOSERVICIO - QUESO BLANDO</v>
       </c>
       <c r="C212" t="str">
-        <v>413155</v>
+        <v>313726</v>
       </c>
       <c r="D212" t="str">
-        <v>780208000046</v>
+        <v>780790000157</v>
       </c>
       <c r="E212" t="str">
-        <v>QUESO BRIE LOS TILOS</v>
+        <v>QUESO CREMA LIVIANO</v>
       </c>
       <c r="F212" t="str">
-        <v>LOS TILOS</v>
+        <v>LIDER</v>
       </c>
       <c r="G212" t="str">
-        <v>140GR</v>
+        <v>226GR</v>
       </c>
       <c r="H212" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/413155.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/313726.jpg_x000d_</v>
       </c>
     </row>
     <row r="213">
@@ -5922,22 +5922,22 @@
         <v>QUESOS AUTOSERVICIO - QUESO BLANDO</v>
       </c>
       <c r="C213" t="str">
-        <v>313725</v>
+        <v>413152</v>
       </c>
       <c r="D213" t="str">
-        <v>780790000156</v>
+        <v>780208000032</v>
       </c>
       <c r="E213" t="str">
-        <v>QUESO CREMA REG</v>
+        <v>QUESO CAMEMBERT PREM</v>
       </c>
       <c r="F213" t="str">
-        <v>LIDER</v>
+        <v>LOS TILOS</v>
       </c>
       <c r="G213" t="str">
-        <v>226GR</v>
+        <v>100GR</v>
       </c>
       <c r="H213" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/313725.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/413152.jpg_x000d_</v>
       </c>
     </row>
     <row r="214">
@@ -5948,22 +5948,22 @@
         <v>QUESOS AUTOSERVICIO - QUESO BLANDO</v>
       </c>
       <c r="C214" t="str">
-        <v>529300</v>
+        <v>413155</v>
       </c>
       <c r="D214" t="str">
-        <v>779156400015</v>
+        <v>780208000046</v>
       </c>
       <c r="E214" t="str">
-        <v>CREAM CHEESE AMERICA</v>
+        <v>QUESO BRIE LOS TILOS</v>
       </c>
       <c r="F214" t="str">
-        <v>SANTA ROSA</v>
+        <v>LOS TILOS</v>
       </c>
       <c r="G214" t="str">
-        <v>227GR</v>
+        <v>140GR</v>
       </c>
       <c r="H214" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/529300.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/413155.jpg_x000d_</v>
       </c>
     </row>
     <row r="215">
@@ -5974,22 +5974,22 @@
         <v>QUESOS AUTOSERVICIO - QUESO BLANDO</v>
       </c>
       <c r="C215" t="str">
-        <v>275617</v>
+        <v>529300</v>
       </c>
       <c r="D215" t="str">
-        <v>780293000051</v>
+        <v>779156400015</v>
       </c>
       <c r="E215" t="str">
-        <v>QUESO CAMEMBERT 100G</v>
+        <v>CREAM CHEESE AMERICA</v>
       </c>
       <c r="F215" t="str">
-        <v>QUILLAYES</v>
+        <v>SANTA ROSA</v>
       </c>
       <c r="G215" t="str">
-        <v>100GR</v>
+        <v>227GR</v>
       </c>
       <c r="H215" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/275617.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/529300.jpg_x000d_</v>
       </c>
     </row>
     <row r="216">
@@ -6015,7 +6015,7 @@
         <v>180GR</v>
       </c>
       <c r="H216" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/769895.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/769895.jpg_x000d_</v>
       </c>
     </row>
     <row r="217">
@@ -6026,22 +6026,22 @@
         <v>QUESOS AUTOSERVICIO - QUESO MADURO</v>
       </c>
       <c r="C217" t="str">
-        <v>254100</v>
+        <v>107749</v>
       </c>
       <c r="D217" t="str">
-        <v>780461339022</v>
+        <v>780295300038</v>
       </c>
       <c r="E217" t="str">
-        <v>QUESO GOUDA LAMINADO</v>
+        <v>QUESO CABRA NATURAL</v>
       </c>
       <c r="F217" t="str">
-        <v>LIDER</v>
+        <v>PAHUILMO</v>
       </c>
       <c r="G217" t="str">
-        <v>500GR</v>
+        <v>200GR</v>
       </c>
       <c r="H217" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/254100.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/107749.jpg_x000d_</v>
       </c>
     </row>
     <row r="218">
@@ -6052,22 +6052,22 @@
         <v>QUESOS AUTOSERVICIO - QUESO MADURO</v>
       </c>
       <c r="C218" t="str">
-        <v>657949</v>
+        <v>111719</v>
       </c>
       <c r="D218" t="str">
-        <v>780290000120</v>
+        <v>780290000133</v>
       </c>
       <c r="E218" t="str">
-        <v>QUILQUE SANDWICH10LM</v>
+        <v>QUESO MANTECOSO 250</v>
       </c>
       <c r="F218" t="str">
-        <v>QUILQUE</v>
+        <v>SOPROLE</v>
       </c>
       <c r="G218" t="str">
-        <v>416GR</v>
+        <v>250GR</v>
       </c>
       <c r="H218" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/657949.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/111719.jpg_x000d_</v>
       </c>
     </row>
     <row r="219">
@@ -6078,22 +6078,22 @@
         <v>QUESOS AUTOSERVICIO - QUESO MADURO</v>
       </c>
       <c r="C219" t="str">
-        <v>735524</v>
+        <v>254100</v>
       </c>
       <c r="D219" t="str">
-        <v>780461957011</v>
+        <v>780461339022</v>
       </c>
       <c r="E219" t="str">
-        <v>Q.MANTECOSO LAMINADO</v>
+        <v>QUESO GOUDA LAMINADO</v>
       </c>
       <c r="F219" t="str">
-        <v>LAS PARCELAS</v>
+        <v>LIDER</v>
       </c>
       <c r="G219" t="str">
-        <v>470GR</v>
+        <v>500GR</v>
       </c>
       <c r="H219" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/735524.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/254100.jpg_x000d_</v>
       </c>
     </row>
     <row r="220">
@@ -6104,22 +6104,22 @@
         <v>QUESOS AUTOSERVICIO - QUESO MADURO</v>
       </c>
       <c r="C220" t="str">
-        <v>490965</v>
+        <v>274484</v>
       </c>
       <c r="D220" t="str">
-        <v>780292000583</v>
+        <v>780292011565</v>
       </c>
       <c r="E220" t="str">
-        <v>Q FUNDIDO CHEDDAR</v>
+        <v>QUESO GAUDA 8 LAMINA</v>
       </c>
       <c r="F220" t="str">
-        <v>LOS ALERCES</v>
+        <v>COLUN</v>
       </c>
       <c r="G220" t="str">
-        <v>160GR</v>
+        <v>150GR</v>
       </c>
       <c r="H220" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/490965.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/274484.jpg_x000d_</v>
       </c>
     </row>
     <row r="221">
@@ -6130,22 +6130,22 @@
         <v>QUESOS AUTOSERVICIO - QUESO MADURO</v>
       </c>
       <c r="C221" t="str">
-        <v>665694</v>
+        <v>274644</v>
       </c>
       <c r="D221" t="str">
-        <v>780208000072</v>
+        <v>780292077749</v>
       </c>
       <c r="E221" t="str">
-        <v>CABRA OREG LOS TILOS</v>
+        <v>QUESO GAUDA LAMINADO</v>
       </c>
       <c r="F221" t="str">
-        <v>LOS TILOS</v>
+        <v>COLUN</v>
       </c>
       <c r="G221" t="str">
-        <v>200GR</v>
+        <v>500GR</v>
       </c>
       <c r="H221" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/665694.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/274644.jpg_x000d_</v>
       </c>
     </row>
     <row r="222">
@@ -6156,22 +6156,22 @@
         <v>QUESOS AUTOSERVICIO - QUESO MADURO</v>
       </c>
       <c r="C222" t="str">
-        <v>5018316</v>
+        <v>275045</v>
       </c>
       <c r="D222" t="str">
-        <v>780461957015</v>
+        <v>780292077725</v>
       </c>
       <c r="E222" t="str">
-        <v>QUESO CHANCO LPDV</v>
+        <v>QUESO RANCO LAMINADO</v>
       </c>
       <c r="F222" t="str">
-        <v>LAS PARCELAS DE</v>
+        <v>RANCO</v>
       </c>
       <c r="G222" t="str">
-        <v>434GR</v>
+        <v>500GR</v>
       </c>
       <c r="H222" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/5018316.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/275045.jpg_x000d_</v>
       </c>
     </row>
     <row r="223">
@@ -6182,22 +6182,22 @@
         <v>QUESOS AUTOSERVICIO - QUESO MADURO</v>
       </c>
       <c r="C223" t="str">
-        <v>451789</v>
+        <v>276471</v>
       </c>
       <c r="D223" t="str">
-        <v>780290100060</v>
+        <v>780292042381</v>
       </c>
       <c r="E223" t="str">
-        <v>QUESO LAMINADO 250 G</v>
+        <v>QUESO RALLADO SOBRE</v>
       </c>
       <c r="F223" t="str">
-        <v>MATTHEI</v>
+        <v>COLUN</v>
       </c>
       <c r="G223" t="str">
-        <v>250GR</v>
+        <v>80GR</v>
       </c>
       <c r="H223" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/451789.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/276471.jpg_x000d_</v>
       </c>
     </row>
     <row r="224">
@@ -6208,22 +6208,22 @@
         <v>QUESOS AUTOSERVICIO - QUESO MADURO</v>
       </c>
       <c r="C224" t="str">
-        <v>346995</v>
+        <v>277174</v>
       </c>
       <c r="D224" t="str">
-        <v>780292000411</v>
+        <v>780292042360</v>
       </c>
       <c r="E224" t="str">
-        <v>QUESO RANCO 250 GR</v>
+        <v>QUESO RALLADO</v>
       </c>
       <c r="F224" t="str">
         <v>COLUN</v>
       </c>
       <c r="G224" t="str">
-        <v>250GR</v>
+        <v>40GR</v>
       </c>
       <c r="H224" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/346995.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/277174.jpg_x000d_</v>
       </c>
     </row>
     <row r="225">
@@ -6234,22 +6234,22 @@
         <v>QUESOS AUTOSERVICIO - QUESO MADURO</v>
       </c>
       <c r="C225" t="str">
-        <v>462719</v>
+        <v>346995</v>
       </c>
       <c r="D225" t="str">
-        <v>780290100038</v>
+        <v>780292000411</v>
       </c>
       <c r="E225" t="str">
-        <v>QUESO TROZADO VACIO</v>
+        <v>QUESO RANCO 250 GR</v>
       </c>
       <c r="F225" t="str">
-        <v>MATTHEI</v>
+        <v>COLUN</v>
       </c>
       <c r="G225" t="str">
-        <v>500GR</v>
+        <v>250GR</v>
       </c>
       <c r="H225" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/462719.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/346995.jpg_x000d_</v>
       </c>
     </row>
     <row r="226">
@@ -6260,22 +6260,22 @@
         <v>QUESOS AUTOSERVICIO - QUESO MADURO</v>
       </c>
       <c r="C226" t="str">
-        <v>451962</v>
+        <v>346998</v>
       </c>
       <c r="D226" t="str">
-        <v>780290100059</v>
+        <v>780292000410</v>
       </c>
       <c r="E226" t="str">
-        <v>QUESO LAMINDO 500 GR</v>
+        <v>Q RANCO LAM SEMI RIG</v>
       </c>
       <c r="F226" t="str">
-        <v>MATTHEI</v>
+        <v>COLUN</v>
       </c>
       <c r="G226" t="str">
         <v>500GR</v>
       </c>
       <c r="H226" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/451962.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/346998.jpg_x000d_</v>
       </c>
     </row>
     <row r="227">
@@ -6286,22 +6286,22 @@
         <v>QUESOS AUTOSERVICIO - QUESO MADURO</v>
       </c>
       <c r="C227" t="str">
-        <v>758117</v>
+        <v>451789</v>
       </c>
       <c r="D227" t="str">
-        <v>780291000365</v>
+        <v>780290100060</v>
       </c>
       <c r="E227" t="str">
-        <v>Q.GAUDA LAMINADO</v>
+        <v>QUESO LAMINADO 250 G</v>
       </c>
       <c r="F227" t="str">
-        <v>CALO</v>
+        <v>MATTHEI</v>
       </c>
       <c r="G227" t="str">
-        <v>467GR</v>
+        <v>250GR</v>
       </c>
       <c r="H227" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/758117.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/451789.jpg_x000d_</v>
       </c>
     </row>
     <row r="228">
@@ -6312,22 +6312,22 @@
         <v>QUESOS AUTOSERVICIO - QUESO MADURO</v>
       </c>
       <c r="C228" t="str">
-        <v>657947</v>
+        <v>451962</v>
       </c>
       <c r="D228" t="str">
-        <v>780290000119</v>
+        <v>780290100059</v>
       </c>
       <c r="E228" t="str">
-        <v>QUILQUE LAM 500 GRS</v>
+        <v>QUESO LAMINDO 500 GR</v>
       </c>
       <c r="F228" t="str">
-        <v>QUILQUE</v>
+        <v>MATTHEI</v>
       </c>
       <c r="G228" t="str">
         <v>500GR</v>
       </c>
       <c r="H228" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/657947.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/451962.jpg_x000d_</v>
       </c>
     </row>
     <row r="229">
@@ -6338,22 +6338,22 @@
         <v>QUESOS AUTOSERVICIO - QUESO MADURO</v>
       </c>
       <c r="C229" t="str">
-        <v>581716</v>
+        <v>462719</v>
       </c>
       <c r="D229" t="str">
-        <v>780292000674</v>
+        <v>780290100038</v>
       </c>
       <c r="E229" t="str">
-        <v>Q. MANT R BUENO L500</v>
+        <v>QUESO TROZADO VACIO</v>
       </c>
       <c r="F229" t="str">
-        <v>COLUN</v>
+        <v>MATTHEI</v>
       </c>
       <c r="G229" t="str">
         <v>500GR</v>
       </c>
       <c r="H229" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/581716.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/462719.jpg_x000d_</v>
       </c>
     </row>
     <row r="230">
@@ -6364,22 +6364,22 @@
         <v>QUESOS AUTOSERVICIO - QUESO MADURO</v>
       </c>
       <c r="C230" t="str">
-        <v>743609</v>
+        <v>490965</v>
       </c>
       <c r="D230" t="str">
-        <v>780461957003</v>
+        <v>780292000583</v>
       </c>
       <c r="E230" t="str">
-        <v>Q.MANTECOSO TROZO</v>
+        <v>Q FUNDIDO CHEDDAR</v>
       </c>
       <c r="F230" t="str">
-        <v>LAS PARCELAS</v>
+        <v>LOS ALERCES</v>
       </c>
       <c r="G230" t="str">
-        <v>350GR</v>
+        <v>160GR</v>
       </c>
       <c r="H230" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/743609.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/490965.jpg_x000d_</v>
       </c>
     </row>
     <row r="231">
@@ -6390,22 +6390,22 @@
         <v>QUESOS AUTOSERVICIO - QUESO MADURO</v>
       </c>
       <c r="C231" t="str">
-        <v>882085</v>
+        <v>504497</v>
       </c>
       <c r="D231" t="str">
-        <v>780466147009</v>
+        <v>780293000143</v>
       </c>
       <c r="E231" t="str">
-        <v>QUESO CABRA GRIEGO</v>
+        <v>CHANCO30 LAMINASVACI</v>
       </c>
       <c r="F231" t="str">
-        <v>LA CABRESA</v>
+        <v>QUILLAYES</v>
       </c>
       <c r="G231" t="str">
-        <v>200GR</v>
+        <v>500GR</v>
       </c>
       <c r="H231" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/882085.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/504497.jpg_x000d_</v>
       </c>
     </row>
     <row r="232">
@@ -6416,22 +6416,22 @@
         <v>QUESOS AUTOSERVICIO - QUESO MADURO</v>
       </c>
       <c r="C232" t="str">
-        <v>658057</v>
+        <v>581716</v>
       </c>
       <c r="D232" t="str">
-        <v>780290000136</v>
+        <v>780292000674</v>
       </c>
       <c r="E232" t="str">
-        <v>QUESO.PARMESANO.80.G</v>
+        <v>Q. MANT R BUENO L500</v>
       </c>
       <c r="F232" t="str">
-        <v>SOPROLE</v>
+        <v>COLUN</v>
       </c>
       <c r="G232" t="str">
-        <v>80GR</v>
+        <v>500GR</v>
       </c>
       <c r="H232" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/658057.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/581716.jpg_x000d_</v>
       </c>
     </row>
     <row r="233">
@@ -6442,22 +6442,22 @@
         <v>QUESOS AUTOSERVICIO - QUESO MADURO</v>
       </c>
       <c r="C233" t="str">
-        <v>274484</v>
+        <v>591826</v>
       </c>
       <c r="D233" t="str">
-        <v>780292011565</v>
+        <v>780293000415</v>
       </c>
       <c r="E233" t="str">
-        <v>QUESO GAUDA 8 LAMINA</v>
+        <v>MOZZARELLA GRANULAD</v>
       </c>
       <c r="F233" t="str">
-        <v>COLUN</v>
+        <v>QUILLAYES</v>
       </c>
       <c r="G233" t="str">
-        <v>150GR</v>
+        <v>400GR</v>
       </c>
       <c r="H233" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/274484.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/591826.jpg_x000d_</v>
       </c>
     </row>
     <row r="234">
@@ -6468,22 +6468,22 @@
         <v>QUESOS AUTOSERVICIO - QUESO MADURO</v>
       </c>
       <c r="C234" t="str">
-        <v>504497</v>
+        <v>657944</v>
       </c>
       <c r="D234" t="str">
-        <v>780293000143</v>
+        <v>780290000117</v>
       </c>
       <c r="E234" t="str">
-        <v>CHANCO30 LAMINASVACI</v>
+        <v>GAUDA LAM 500 GRS</v>
       </c>
       <c r="F234" t="str">
-        <v>QUILLAYES</v>
+        <v>SOPROLE</v>
       </c>
       <c r="G234" t="str">
         <v>500GR</v>
       </c>
       <c r="H234" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/504497.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/657944.jpg_x000d_</v>
       </c>
     </row>
     <row r="235">
@@ -6494,22 +6494,22 @@
         <v>QUESOS AUTOSERVICIO - QUESO MADURO</v>
       </c>
       <c r="C235" t="str">
-        <v>743611</v>
+        <v>657947</v>
       </c>
       <c r="D235" t="str">
-        <v>780461957004</v>
+        <v>780290000119</v>
       </c>
       <c r="E235" t="str">
-        <v>Q.MANTECOSO LAMINADO</v>
+        <v>QUILQUE LAM 500 GRS</v>
       </c>
       <c r="F235" t="str">
-        <v>LAS PARCELAS</v>
+        <v>QUILQUE</v>
       </c>
       <c r="G235" t="str">
-        <v>350GR</v>
+        <v>500GR</v>
       </c>
       <c r="H235" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/743611.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/657947.jpg_x000d_</v>
       </c>
     </row>
     <row r="236">
@@ -6520,22 +6520,22 @@
         <v>QUESOS AUTOSERVICIO - QUESO MADURO</v>
       </c>
       <c r="C236" t="str">
-        <v>743612</v>
+        <v>657949</v>
       </c>
       <c r="D236" t="str">
-        <v>780291000505</v>
+        <v>780290000120</v>
       </c>
       <c r="E236" t="str">
-        <v>Q.MANTECOSO TROZO</v>
+        <v>QUILQUE SANDWICH10LM</v>
       </c>
       <c r="F236" t="str">
-        <v>LAS PARCELAS</v>
+        <v>QUILQUE</v>
       </c>
       <c r="G236" t="str">
-        <v>450GR</v>
+        <v>416GR</v>
       </c>
       <c r="H236" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/743612.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/657949.jpg_x000d_</v>
       </c>
     </row>
     <row r="237">
@@ -6546,22 +6546,22 @@
         <v>QUESOS AUTOSERVICIO - QUESO MADURO</v>
       </c>
       <c r="C237" t="str">
-        <v>763947</v>
+        <v>658057</v>
       </c>
       <c r="D237" t="str">
-        <v>780290000247</v>
+        <v>780290000136</v>
       </c>
       <c r="E237" t="str">
-        <v>Q.RODDA LAMINADO</v>
+        <v>QUESO.PARMESANO.80.G</v>
       </c>
       <c r="F237" t="str">
         <v>SOPROLE</v>
       </c>
       <c r="G237" t="str">
-        <v>500GR</v>
+        <v>80GR</v>
       </c>
       <c r="H237" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/763947.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/658057.jpg_x000d_</v>
       </c>
     </row>
     <row r="238">
@@ -6572,22 +6572,22 @@
         <v>QUESOS AUTOSERVICIO - QUESO MADURO</v>
       </c>
       <c r="C238" t="str">
-        <v>111719</v>
+        <v>665694</v>
       </c>
       <c r="D238" t="str">
-        <v>780290000133</v>
+        <v>780208000072</v>
       </c>
       <c r="E238" t="str">
-        <v>QUESO MANTECOSO 250</v>
+        <v>CABRA OREG LOS TILOS</v>
       </c>
       <c r="F238" t="str">
-        <v>SOPROLE</v>
+        <v>LOS TILOS</v>
       </c>
       <c r="G238" t="str">
-        <v>250GR</v>
+        <v>200GR</v>
       </c>
       <c r="H238" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/111719.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/665694.jpg_x000d_</v>
       </c>
     </row>
     <row r="239">
@@ -6598,22 +6598,22 @@
         <v>QUESOS AUTOSERVICIO - QUESO MADURO</v>
       </c>
       <c r="C239" t="str">
-        <v>107749</v>
+        <v>696542</v>
       </c>
       <c r="D239" t="str">
-        <v>780295300038</v>
+        <v>7802494</v>
       </c>
       <c r="E239" t="str">
-        <v>QUESO CABRA NATURAL</v>
+        <v>QUESO EDAM</v>
       </c>
       <c r="F239" t="str">
-        <v>PAHUILMO</v>
+        <v>SANTA ROSA</v>
       </c>
       <c r="G239" t="str">
         <v>200GR</v>
       </c>
       <c r="H239" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/107749.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/696542.jpg_x000d_</v>
       </c>
     </row>
     <row r="240">
@@ -6624,22 +6624,22 @@
         <v>QUESOS AUTOSERVICIO - QUESO MADURO</v>
       </c>
       <c r="C240" t="str">
-        <v>274644</v>
+        <v>709595</v>
       </c>
       <c r="D240" t="str">
-        <v>780292077749</v>
+        <v>780208000083</v>
       </c>
       <c r="E240" t="str">
-        <v>QUESO GAUDA LAMINADO</v>
+        <v>QUESO PARMESANO LT</v>
       </c>
       <c r="F240" t="str">
-        <v>COLUN</v>
+        <v>LOS TILOS</v>
       </c>
       <c r="G240" t="str">
-        <v>500GR</v>
+        <v>145GR</v>
       </c>
       <c r="H240" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/274644.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/709595.jpg_x000d_</v>
       </c>
     </row>
     <row r="241">
@@ -6650,22 +6650,22 @@
         <v>QUESOS AUTOSERVICIO - QUESO MADURO</v>
       </c>
       <c r="C241" t="str">
-        <v>696542</v>
+        <v>715499</v>
       </c>
       <c r="D241" t="str">
-        <v>7802494</v>
+        <v>780208000023</v>
       </c>
       <c r="E241" t="str">
-        <v>QUESO EDAM</v>
+        <v>QUESO CHANCO LAM</v>
       </c>
       <c r="F241" t="str">
-        <v>SANTA ROSA</v>
+        <v>EL ROBLE</v>
       </c>
       <c r="G241" t="str">
-        <v>200GR</v>
+        <v>500GR</v>
       </c>
       <c r="H241" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/696542.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/715499.jpg_x000d_</v>
       </c>
     </row>
     <row r="242">
@@ -6676,22 +6676,22 @@
         <v>QUESOS AUTOSERVICIO - QUESO MADURO</v>
       </c>
       <c r="C242" t="str">
-        <v>773336</v>
+        <v>724185</v>
       </c>
       <c r="D242" t="str">
-        <v>780466147002</v>
+        <v>780466896001</v>
       </c>
       <c r="E242" t="str">
-        <v>QUESO CABRA MADURO</v>
+        <v>Q CABRA SUAVE</v>
       </c>
       <c r="F242" t="str">
-        <v>LA CABRESA</v>
+        <v>CALLAQUI</v>
       </c>
       <c r="G242" t="str">
         <v>200GR</v>
       </c>
       <c r="H242" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/773336.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/724185.jpg_x000d_</v>
       </c>
     </row>
     <row r="243">
@@ -6702,22 +6702,22 @@
         <v>QUESOS AUTOSERVICIO - QUESO MADURO</v>
       </c>
       <c r="C243" t="str">
-        <v>709595</v>
+        <v>735524</v>
       </c>
       <c r="D243" t="str">
-        <v>780208000083</v>
+        <v>780461957011</v>
       </c>
       <c r="E243" t="str">
-        <v>QUESO PARMESANO LT</v>
+        <v>Q.MANTECOSO LAMINADO</v>
       </c>
       <c r="F243" t="str">
-        <v>LOS TILOS</v>
+        <v>LAS PARCELAS</v>
       </c>
       <c r="G243" t="str">
-        <v>145GR</v>
+        <v>470GR</v>
       </c>
       <c r="H243" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/709595.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/735524.jpg_x000d_</v>
       </c>
     </row>
     <row r="244">
@@ -6728,22 +6728,22 @@
         <v>QUESOS AUTOSERVICIO - QUESO MADURO</v>
       </c>
       <c r="C244" t="str">
-        <v>346998</v>
+        <v>743609</v>
       </c>
       <c r="D244" t="str">
-        <v>780292000410</v>
+        <v>780461957003</v>
       </c>
       <c r="E244" t="str">
-        <v>Q RANCO LAM SEMI RIG</v>
+        <v>Q.MANTECOSO TROZO</v>
       </c>
       <c r="F244" t="str">
-        <v>COLUN</v>
+        <v>LAS PARCELAS</v>
       </c>
       <c r="G244" t="str">
-        <v>500GR</v>
+        <v>350GR</v>
       </c>
       <c r="H244" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/346998.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/743609.jpg_x000d_</v>
       </c>
     </row>
     <row r="245">
@@ -6754,22 +6754,22 @@
         <v>QUESOS AUTOSERVICIO - QUESO MADURO</v>
       </c>
       <c r="C245" t="str">
-        <v>277174</v>
+        <v>743611</v>
       </c>
       <c r="D245" t="str">
-        <v>780292042360</v>
+        <v>780461957004</v>
       </c>
       <c r="E245" t="str">
-        <v>QUESO RALLADO</v>
+        <v>Q.MANTECOSO LAMINADO</v>
       </c>
       <c r="F245" t="str">
-        <v>COLUN</v>
+        <v>LAS PARCELAS</v>
       </c>
       <c r="G245" t="str">
-        <v>40GR</v>
+        <v>350GR</v>
       </c>
       <c r="H245" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/277174.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/743611.jpg_x000d_</v>
       </c>
     </row>
     <row r="246">
@@ -6780,22 +6780,22 @@
         <v>QUESOS AUTOSERVICIO - QUESO MADURO</v>
       </c>
       <c r="C246" t="str">
-        <v>724185</v>
+        <v>743612</v>
       </c>
       <c r="D246" t="str">
-        <v>780466896001</v>
+        <v>780291000505</v>
       </c>
       <c r="E246" t="str">
-        <v>Q CABRA SUAVE</v>
+        <v>Q.MANTECOSO TROZO</v>
       </c>
       <c r="F246" t="str">
-        <v>CALLAQUI</v>
+        <v>LAS PARCELAS</v>
       </c>
       <c r="G246" t="str">
-        <v>200GR</v>
+        <v>450GR</v>
       </c>
       <c r="H246" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/724185.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/743612.jpg_x000d_</v>
       </c>
     </row>
     <row r="247">
@@ -6806,22 +6806,22 @@
         <v>QUESOS AUTOSERVICIO - QUESO MADURO</v>
       </c>
       <c r="C247" t="str">
-        <v>591826</v>
+        <v>758117</v>
       </c>
       <c r="D247" t="str">
-        <v>780293000415</v>
+        <v>780291000365</v>
       </c>
       <c r="E247" t="str">
-        <v>MOZZARELLA GRANULAD</v>
+        <v>Q.GAUDA LAMINADO</v>
       </c>
       <c r="F247" t="str">
-        <v>QUILLAYES</v>
+        <v>CALO</v>
       </c>
       <c r="G247" t="str">
-        <v>400GR</v>
+        <v>467GR</v>
       </c>
       <c r="H247" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/591826.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/758117.jpg_x000d_</v>
       </c>
     </row>
     <row r="248">
@@ -6832,22 +6832,22 @@
         <v>QUESOS AUTOSERVICIO - QUESO MADURO</v>
       </c>
       <c r="C248" t="str">
-        <v>786311</v>
+        <v>763947</v>
       </c>
       <c r="D248" t="str">
-        <v>780462863061</v>
+        <v>780290000247</v>
       </c>
       <c r="E248" t="str">
-        <v>QUESO FUNDIDO AMERI</v>
+        <v>Q.RODDA LAMINADO</v>
       </c>
       <c r="F248" t="str">
-        <v>GREAT VALUE</v>
+        <v>SOPROLE</v>
       </c>
       <c r="G248" t="str">
-        <v>144GR</v>
+        <v>500GR</v>
       </c>
       <c r="H248" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/786311.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/763947.jpg_x000d_</v>
       </c>
     </row>
     <row r="249">
@@ -6873,7 +6873,7 @@
         <v>144GR</v>
       </c>
       <c r="H249" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/772077.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/772077.jpg_x000d_</v>
       </c>
     </row>
     <row r="250">
@@ -6884,22 +6884,22 @@
         <v>QUESOS AUTOSERVICIO - QUESO MADURO</v>
       </c>
       <c r="C250" t="str">
-        <v>715499</v>
+        <v>773336</v>
       </c>
       <c r="D250" t="str">
-        <v>780208000023</v>
+        <v>780466147002</v>
       </c>
       <c r="E250" t="str">
-        <v>QUESO CHANCO LAM</v>
+        <v>QUESO CABRA MADURO</v>
       </c>
       <c r="F250" t="str">
-        <v>EL ROBLE</v>
+        <v>LA CABRESA</v>
       </c>
       <c r="G250" t="str">
-        <v>500GR</v>
+        <v>200GR</v>
       </c>
       <c r="H250" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/715499.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/773336.jpg_x000d_</v>
       </c>
     </row>
     <row r="251">
@@ -6910,22 +6910,22 @@
         <v>QUESOS AUTOSERVICIO - QUESO MADURO</v>
       </c>
       <c r="C251" t="str">
-        <v>5049601</v>
+        <v>786311</v>
       </c>
       <c r="D251" t="str">
-        <v>780467219013</v>
+        <v>780462863061</v>
       </c>
       <c r="E251" t="str">
-        <v>MANTECOSO LAMINADO</v>
+        <v>QUESO FUNDIDO AMERI</v>
       </c>
       <c r="F251" t="str">
-        <v>DONA PAULA</v>
+        <v>GREAT VALUE</v>
       </c>
       <c r="G251" t="str">
-        <v>500GR</v>
+        <v>144GR</v>
       </c>
       <c r="H251" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/5049601.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/786311.jpg_x000d_</v>
       </c>
     </row>
     <row r="252">
@@ -6936,22 +6936,22 @@
         <v>QUESOS AUTOSERVICIO - QUESO MADURO</v>
       </c>
       <c r="C252" t="str">
-        <v>657944</v>
+        <v>882085</v>
       </c>
       <c r="D252" t="str">
-        <v>780290000117</v>
+        <v>780466147009</v>
       </c>
       <c r="E252" t="str">
-        <v>GAUDA LAM 500 GRS</v>
+        <v>QUESO CABRA GRIEGO</v>
       </c>
       <c r="F252" t="str">
-        <v>SOPROLE</v>
+        <v>LA CABRESA</v>
       </c>
       <c r="G252" t="str">
-        <v>500GR</v>
+        <v>200GR</v>
       </c>
       <c r="H252" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/657944.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/882085.jpg_x000d_</v>
       </c>
     </row>
     <row r="253">
@@ -6962,22 +6962,22 @@
         <v>QUESOS AUTOSERVICIO - QUESO MADURO</v>
       </c>
       <c r="C253" t="str">
-        <v>275045</v>
+        <v>5018316</v>
       </c>
       <c r="D253" t="str">
-        <v>780292077725</v>
+        <v>780461957015</v>
       </c>
       <c r="E253" t="str">
-        <v>QUESO RANCO LAMINADO</v>
+        <v>QUESO CHANCO LPDV</v>
       </c>
       <c r="F253" t="str">
-        <v>RANCO</v>
+        <v>LAS PARCELAS DE</v>
       </c>
       <c r="G253" t="str">
-        <v>500GR</v>
+        <v>434GR</v>
       </c>
       <c r="H253" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/275045.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/5018316.jpg_x000d_</v>
       </c>
     </row>
     <row r="254">
@@ -6988,22 +6988,22 @@
         <v>QUESOS AUTOSERVICIO - QUESO MADURO</v>
       </c>
       <c r="C254" t="str">
-        <v>276471</v>
+        <v>5049601</v>
       </c>
       <c r="D254" t="str">
-        <v>780292042381</v>
+        <v>780467219013</v>
       </c>
       <c r="E254" t="str">
-        <v>QUESO RALLADO SOBRE</v>
+        <v>MANTECOSO LAMINADO</v>
       </c>
       <c r="F254" t="str">
-        <v>COLUN</v>
+        <v>DONA PAULA</v>
       </c>
       <c r="G254" t="str">
-        <v>80GR</v>
+        <v>500GR</v>
       </c>
       <c r="H254" t="str">
-        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/276471.jpg</v>
+        <v>https://raw.githubusercontent.com/Galaz94/Double_Control/main/images/5049601.jpg</v>
       </c>
     </row>
   </sheetData>
